--- a/用例数据/深B/深B转托管/清算结果.xlsx
+++ b/用例数据/深B/深B转托管/清算结果.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\source\用例数据\深B\深B转托管\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FA17E4-DC00-40D3-A428-28DE40857CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27108" windowHeight="11640" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,15 +21,15 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">account!$A$1:$ER$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">stklist!$A$1:$CI$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">tradinglog!$A$1:$EI$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">stklist!$A$1:$CG$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">tradinglog!$A$1:$EH$11</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7111" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6593" uniqueCount="657">
   <si>
     <t>openorder</t>
   </si>
@@ -587,7 +593,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>B</t>
     </r>
@@ -603,7 +609,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>H</t>
     </r>
@@ -1055,7 +1061,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>B</t>
     </r>
@@ -1115,7 +1121,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>B</t>
     </r>
@@ -1131,7 +1137,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -1162,7 +1168,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>B</t>
     </r>
@@ -1178,7 +1184,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -1217,7 +1223,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>B</t>
     </r>
@@ -1838,7 +1844,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>B</t>
     </r>
@@ -1854,7 +1860,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -1921,7 +1927,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>B</t>
     </r>
@@ -1937,7 +1943,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -2027,7 +2033,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -2046,19 +2052,267 @@
   </si>
   <si>
     <t>000006879967</t>
+  </si>
+  <si>
+    <r>
+      <t>深</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主股东</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>26500.0000</t>
+  </si>
+  <si>
+    <t>2.6500</t>
+  </si>
+  <si>
+    <t>30002565</t>
+  </si>
+  <si>
+    <t>20230509235959</t>
+  </si>
+  <si>
+    <t>20230510150308</t>
+  </si>
+  <si>
+    <t>BG0081084</t>
+  </si>
+  <si>
+    <r>
+      <t>焦振鹏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>股主股东</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>股</t>
+    </r>
+  </si>
+  <si>
+    <t>20230509000000</t>
+  </si>
+  <si>
+    <t>999999245.000</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>000007320424</t>
+  </si>
+  <si>
+    <t>30002566</t>
+  </si>
+  <si>
+    <t>1000001190.000</t>
+  </si>
+  <si>
+    <r>
+      <t>字符</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>000007320425</t>
+  </si>
+  <si>
+    <t>30002567</t>
+  </si>
+  <si>
+    <t>000007320426</t>
+  </si>
+  <si>
+    <t>30002731</t>
+  </si>
+  <si>
+    <t>20230510150309</t>
+  </si>
+  <si>
+    <t>BG0081081</t>
+  </si>
+  <si>
+    <r>
+      <t>测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>V5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回报</t>
+    </r>
+  </si>
+  <si>
+    <t>999999560.000</t>
+  </si>
+  <si>
+    <t>20230509135522</t>
+  </si>
+  <si>
+    <t>000007320590</t>
+  </si>
+  <si>
+    <t>30002732</t>
+  </si>
+  <si>
+    <t>000007320591</t>
+  </si>
+  <si>
+    <t>30002733</t>
+  </si>
+  <si>
+    <t>BG0081082</t>
+  </si>
+  <si>
+    <t>000007320592</t>
+  </si>
+  <si>
+    <t>30002734</t>
+  </si>
+  <si>
+    <t>BG0081083</t>
+  </si>
+  <si>
+    <r>
+      <t>焦振鹏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>股虚拟股东</t>
+    </r>
+  </si>
+  <si>
+    <t>999999545.000</t>
+  </si>
+  <si>
+    <t>000007320593</t>
+  </si>
+  <si>
+    <t>30002735</t>
+  </si>
+  <si>
+    <t>1000001210.000</t>
+  </si>
+  <si>
+    <t>000007320594</t>
+  </si>
+  <si>
+    <t>30002736</t>
+  </si>
+  <si>
+    <t>000007320595</t>
+  </si>
+  <si>
+    <t>30002737</t>
+  </si>
+  <si>
+    <t>BG0081085</t>
+  </si>
+  <si>
+    <t>000007320596</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2069,7 +2323,7 @@
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2077,151 +2331,20 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2234,194 +2357,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2429,255 +2366,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2693,62 +2388,21 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3035,37 +2689,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:ES429"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A47" sqref="$A47:$XFD57"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="13" style="3"/>
-    <col min="4" max="4" width="20.4444444444444" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="13" style="3"/>
-    <col min="6" max="6" width="21.4444444444444" style="3" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="3" customWidth="1"/>
     <col min="7" max="11" width="13" style="3"/>
-    <col min="12" max="12" width="18.8888888888889" style="3" customWidth="1"/>
-    <col min="13" max="13" width="20.9907407407407" style="3" customWidth="1"/>
+    <col min="12" max="12" width="18.875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="21" style="3" customWidth="1"/>
     <col min="14" max="16384" width="13" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" s="1" customFormat="1"/>
-    <row r="3" s="1" customFormat="1" spans="1:1">
+    <row r="2" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:128">
+    <row r="4" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -3451,7 +3105,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:127">
+    <row r="5" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>129</v>
       </c>
@@ -3699,7 +3353,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:127">
+    <row r="6" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>168</v>
       </c>
@@ -3959,7 +3613,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:127">
+    <row r="7" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>182</v>
       </c>
@@ -4219,14 +3873,14 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1" spans="1:1">
+    <row r="8" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:149">
+    <row r="11" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -4675,7 +4329,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:149">
+    <row r="12" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>327</v>
       </c>
@@ -5088,7 +4742,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:149">
+    <row r="13" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>327</v>
       </c>
@@ -5501,7 +5155,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:149">
+    <row r="14" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>327</v>
       </c>
@@ -5914,7 +5568,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:149">
+    <row r="15" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>327</v>
       </c>
@@ -6327,7 +5981,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:149">
+    <row r="16" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>365</v>
       </c>
@@ -6740,7 +6394,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:149">
+    <row r="17" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>365</v>
       </c>
@@ -7153,7 +6807,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:149">
+    <row r="18" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>365</v>
       </c>
@@ -7566,7 +7220,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:149">
+    <row r="19" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>365</v>
       </c>
@@ -7979,19 +7633,19 @@
         <v>142</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1"/>
-    <row r="21" s="1" customFormat="1"/>
-    <row r="22" s="1" customFormat="1"/>
-    <row r="23" s="1" customFormat="1"/>
-    <row r="24" s="1" customFormat="1"/>
-    <row r="25" s="1" customFormat="1"/>
-    <row r="26" s="1" customFormat="1"/>
-    <row r="27" s="1" customFormat="1" spans="1:1">
+    <row r="20" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" spans="1:88">
+    <row r="28" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -8257,7 +7911,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" spans="1:88">
+    <row r="29" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>327</v>
       </c>
@@ -8523,7 +8177,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" spans="1:88">
+    <row r="30" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>327</v>
       </c>
@@ -8789,7 +8443,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" spans="1:88">
+    <row r="31" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>327</v>
       </c>
@@ -9055,7 +8709,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" spans="1:88">
+    <row r="32" spans="1:149" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>327</v>
       </c>
@@ -9321,7 +8975,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" spans="1:88">
+    <row r="33" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>327</v>
       </c>
@@ -9587,7 +9241,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" spans="1:88">
+    <row r="34" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>327</v>
       </c>
@@ -9853,7 +9507,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" spans="1:87">
+    <row r="35" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>365</v>
       </c>
@@ -10116,7 +9770,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" spans="1:87">
+    <row r="36" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>365</v>
       </c>
@@ -10379,7 +10033,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" spans="1:87">
+    <row r="37" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>365</v>
       </c>
@@ -10642,7 +10296,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" spans="1:87">
+    <row r="38" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>365</v>
       </c>
@@ -10905,7 +10559,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" spans="1:87">
+    <row r="39" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>365</v>
       </c>
@@ -11168,7 +10822,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" spans="1:87">
+    <row r="40" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>365</v>
       </c>
@@ -11431,7 +11085,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" spans="1:87">
+    <row r="41" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>365</v>
       </c>
@@ -11691,16 +11345,16 @@
         <v>140</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1"/>
-    <row r="43" s="1" customFormat="1"/>
-    <row r="44" s="1" customFormat="1"/>
-    <row r="45" s="1" customFormat="1"/>
-    <row r="46" s="1" customFormat="1" spans="1:1">
+    <row r="42" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" spans="1:141">
+    <row r="47" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>1</v>
       </c>
@@ -12125,7 +11779,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" spans="1:141">
+    <row r="48" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>149</v>
       </c>
@@ -12463,7 +12117,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" spans="1:141">
+    <row r="49" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>570</v>
       </c>
@@ -12801,7 +12455,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" spans="1:141">
+    <row r="50" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>131</v>
       </c>
@@ -13139,7 +12793,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" spans="1:141">
+    <row r="51" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>129</v>
       </c>
@@ -13474,7 +13128,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" spans="1:141">
+    <row r="52" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>168</v>
       </c>
@@ -13812,7 +13466,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="53" s="1" customFormat="1" spans="1:141">
+    <row r="53" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>182</v>
       </c>
@@ -14150,7 +13804,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="54" s="1" customFormat="1" spans="1:141">
+    <row r="54" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>590</v>
       </c>
@@ -14488,7 +14142,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="55" s="1" customFormat="1" spans="1:141">
+    <row r="55" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>596</v>
       </c>
@@ -14826,7 +14480,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="56" s="1" customFormat="1" spans="1:141">
+    <row r="56" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>599</v>
       </c>
@@ -15164,7 +14818,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="57" s="1" customFormat="1" spans="1:141">
+    <row r="57" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>609</v>
       </c>
@@ -15502,526 +15156,525 @@
         <v>341</v>
       </c>
     </row>
-    <row r="58" s="1" customFormat="1"/>
-    <row r="59" s="1" customFormat="1"/>
-    <row r="60" s="1" customFormat="1"/>
-    <row r="61" s="1" customFormat="1"/>
-    <row r="62" s="1" customFormat="1"/>
-    <row r="63" s="1" customFormat="1"/>
-    <row r="64" s="1" customFormat="1"/>
-    <row r="65" s="1" customFormat="1"/>
-    <row r="66" s="1" customFormat="1"/>
-    <row r="67" s="1" customFormat="1"/>
-    <row r="68" s="1" customFormat="1"/>
-    <row r="69" s="1" customFormat="1"/>
-    <row r="70" s="1" customFormat="1"/>
-    <row r="71" s="1" customFormat="1"/>
-    <row r="72" s="1" customFormat="1"/>
-    <row r="73" s="1" customFormat="1"/>
-    <row r="74" s="1" customFormat="1"/>
-    <row r="75" s="1" customFormat="1"/>
-    <row r="76" s="1" customFormat="1"/>
-    <row r="77" s="1" customFormat="1"/>
-    <row r="78" s="1" customFormat="1"/>
-    <row r="79" s="1" customFormat="1"/>
-    <row r="80" s="1" customFormat="1"/>
-    <row r="81" s="1" customFormat="1"/>
-    <row r="82" s="1" customFormat="1"/>
-    <row r="83" s="1" customFormat="1"/>
-    <row r="84" s="1" customFormat="1"/>
-    <row r="85" s="1" customFormat="1"/>
-    <row r="86" s="1" customFormat="1"/>
-    <row r="87" s="1" customFormat="1"/>
-    <row r="88" s="1" customFormat="1"/>
-    <row r="89" s="1" customFormat="1"/>
-    <row r="90" s="1" customFormat="1"/>
-    <row r="91" s="1" customFormat="1"/>
-    <row r="92" s="1" customFormat="1"/>
-    <row r="93" s="1" customFormat="1"/>
-    <row r="94" s="1" customFormat="1"/>
-    <row r="95" s="1" customFormat="1"/>
-    <row r="96" s="1" customFormat="1"/>
-    <row r="97" s="1" customFormat="1"/>
-    <row r="98" s="1" customFormat="1"/>
-    <row r="99" s="1" customFormat="1"/>
-    <row r="100" s="1" customFormat="1"/>
-    <row r="101" s="1" customFormat="1"/>
-    <row r="102" s="1" customFormat="1"/>
-    <row r="103" s="1" customFormat="1"/>
-    <row r="104" s="1" customFormat="1"/>
-    <row r="105" s="1" customFormat="1"/>
-    <row r="106" s="1" customFormat="1"/>
-    <row r="107" s="1" customFormat="1"/>
-    <row r="108" s="1" customFormat="1"/>
-    <row r="109" s="1" customFormat="1"/>
-    <row r="110" s="1" customFormat="1"/>
-    <row r="111" s="1" customFormat="1"/>
-    <row r="112" s="1" customFormat="1"/>
-    <row r="113" s="1" customFormat="1"/>
-    <row r="114" s="1" customFormat="1"/>
-    <row r="115" s="1" customFormat="1"/>
-    <row r="116" s="1" customFormat="1"/>
-    <row r="117" s="1" customFormat="1"/>
-    <row r="118" s="1" customFormat="1"/>
-    <row r="119" s="1" customFormat="1"/>
-    <row r="120" s="1" customFormat="1"/>
-    <row r="121" s="1" customFormat="1"/>
-    <row r="122" s="1" customFormat="1"/>
-    <row r="123" s="1" customFormat="1"/>
-    <row r="124" s="1" customFormat="1"/>
-    <row r="125" s="1" customFormat="1"/>
-    <row r="126" s="1" customFormat="1"/>
-    <row r="127" s="1" customFormat="1"/>
-    <row r="128" s="1" customFormat="1"/>
-    <row r="129" s="1" customFormat="1"/>
-    <row r="130" s="1" customFormat="1"/>
-    <row r="131" s="1" customFormat="1"/>
-    <row r="132" s="1" customFormat="1"/>
-    <row r="133" s="1" customFormat="1"/>
-    <row r="134" s="1" customFormat="1"/>
-    <row r="135" s="1" customFormat="1"/>
-    <row r="136" s="1" customFormat="1"/>
-    <row r="137" s="1" customFormat="1"/>
-    <row r="138" s="1" customFormat="1"/>
-    <row r="139" s="1" customFormat="1"/>
-    <row r="140" s="1" customFormat="1"/>
-    <row r="141" s="1" customFormat="1"/>
-    <row r="142" s="1" customFormat="1"/>
-    <row r="143" s="1" customFormat="1"/>
-    <row r="144" s="1" customFormat="1"/>
-    <row r="145" s="1" customFormat="1"/>
-    <row r="146" s="1" customFormat="1"/>
-    <row r="147" s="1" customFormat="1"/>
-    <row r="148" s="1" customFormat="1"/>
-    <row r="149" s="1" customFormat="1"/>
-    <row r="150" s="1" customFormat="1"/>
-    <row r="151" s="1" customFormat="1"/>
-    <row r="152" s="1" customFormat="1"/>
-    <row r="153" s="1" customFormat="1"/>
-    <row r="154" s="1" customFormat="1"/>
-    <row r="155" s="1" customFormat="1"/>
-    <row r="156" s="1" customFormat="1"/>
-    <row r="157" s="1" customFormat="1"/>
-    <row r="158" s="1" customFormat="1"/>
-    <row r="159" s="1" customFormat="1"/>
-    <row r="160" s="1" customFormat="1"/>
-    <row r="161" s="1" customFormat="1"/>
-    <row r="162" s="1" customFormat="1"/>
-    <row r="163" s="1" customFormat="1"/>
-    <row r="164" s="1" customFormat="1"/>
-    <row r="165" s="1" customFormat="1"/>
-    <row r="166" s="1" customFormat="1"/>
-    <row r="167" s="1" customFormat="1"/>
-    <row r="168" s="1" customFormat="1"/>
-    <row r="169" s="1" customFormat="1"/>
-    <row r="170" s="1" customFormat="1"/>
-    <row r="171" s="1" customFormat="1"/>
-    <row r="172" s="1" customFormat="1"/>
-    <row r="173" s="1" customFormat="1"/>
-    <row r="174" s="1" customFormat="1"/>
-    <row r="175" s="1" customFormat="1"/>
-    <row r="176" s="1" customFormat="1"/>
-    <row r="177" s="1" customFormat="1"/>
-    <row r="178" s="1" customFormat="1"/>
-    <row r="179" s="1" customFormat="1"/>
-    <row r="180" s="1" customFormat="1"/>
-    <row r="181" s="1" customFormat="1"/>
-    <row r="182" s="1" customFormat="1"/>
-    <row r="183" s="1" customFormat="1"/>
-    <row r="184" s="1" customFormat="1"/>
-    <row r="185" s="1" customFormat="1"/>
-    <row r="186" s="1" customFormat="1"/>
-    <row r="187" s="1" customFormat="1"/>
-    <row r="188" s="1" customFormat="1"/>
-    <row r="189" s="1" customFormat="1"/>
-    <row r="190" s="1" customFormat="1"/>
-    <row r="191" s="1" customFormat="1"/>
-    <row r="192" s="1" customFormat="1"/>
-    <row r="193" s="1" customFormat="1"/>
-    <row r="194" s="1" customFormat="1"/>
-    <row r="195" s="1" customFormat="1"/>
-    <row r="196" s="1" customFormat="1"/>
-    <row r="197" s="1" customFormat="1"/>
-    <row r="198" s="1" customFormat="1"/>
-    <row r="199" s="1" customFormat="1"/>
-    <row r="200" s="1" customFormat="1"/>
-    <row r="201" s="1" customFormat="1"/>
-    <row r="202" s="1" customFormat="1"/>
-    <row r="203" s="1" customFormat="1"/>
-    <row r="204" s="1" customFormat="1"/>
-    <row r="205" s="1" customFormat="1"/>
-    <row r="206" s="1" customFormat="1"/>
-    <row r="207" s="1" customFormat="1"/>
-    <row r="208" s="1" customFormat="1"/>
-    <row r="209" s="1" customFormat="1"/>
-    <row r="210" s="1" customFormat="1"/>
-    <row r="211" s="1" customFormat="1"/>
-    <row r="212" s="1" customFormat="1"/>
-    <row r="213" s="1" customFormat="1"/>
-    <row r="214" s="1" customFormat="1"/>
-    <row r="215" s="1" customFormat="1"/>
-    <row r="216" s="1" customFormat="1"/>
-    <row r="217" s="1" customFormat="1"/>
-    <row r="218" s="1" customFormat="1"/>
-    <row r="219" s="1" customFormat="1"/>
-    <row r="220" s="1" customFormat="1"/>
-    <row r="221" s="1" customFormat="1"/>
-    <row r="222" s="1" customFormat="1"/>
-    <row r="223" s="1" customFormat="1"/>
-    <row r="224" s="1" customFormat="1"/>
-    <row r="225" s="1" customFormat="1"/>
-    <row r="226" s="1" customFormat="1"/>
-    <row r="227" s="1" customFormat="1"/>
-    <row r="228" s="1" customFormat="1"/>
-    <row r="229" s="1" customFormat="1"/>
-    <row r="230" s="1" customFormat="1"/>
-    <row r="231" s="1" customFormat="1"/>
-    <row r="232" s="1" customFormat="1"/>
-    <row r="233" s="1" customFormat="1"/>
-    <row r="234" s="1" customFormat="1"/>
-    <row r="235" s="1" customFormat="1"/>
-    <row r="236" s="1" customFormat="1"/>
-    <row r="237" s="1" customFormat="1"/>
-    <row r="238" s="1" customFormat="1"/>
-    <row r="239" s="1" customFormat="1"/>
-    <row r="240" s="1" customFormat="1"/>
-    <row r="241" s="1" customFormat="1"/>
-    <row r="242" s="1" customFormat="1"/>
-    <row r="243" s="1" customFormat="1"/>
-    <row r="244" s="1" customFormat="1"/>
-    <row r="245" s="1" customFormat="1"/>
-    <row r="246" s="1" customFormat="1"/>
-    <row r="247" s="1" customFormat="1"/>
-    <row r="248" s="1" customFormat="1"/>
-    <row r="249" s="1" customFormat="1"/>
-    <row r="250" s="1" customFormat="1"/>
-    <row r="251" s="1" customFormat="1"/>
-    <row r="252" s="1" customFormat="1"/>
-    <row r="253" s="1" customFormat="1"/>
-    <row r="254" s="1" customFormat="1"/>
-    <row r="255" s="1" customFormat="1"/>
-    <row r="256" s="1" customFormat="1"/>
-    <row r="257" s="1" customFormat="1"/>
-    <row r="258" s="1" customFormat="1"/>
-    <row r="259" s="1" customFormat="1"/>
-    <row r="260" s="1" customFormat="1"/>
-    <row r="261" s="1" customFormat="1"/>
-    <row r="262" s="1" customFormat="1"/>
-    <row r="263" s="1" customFormat="1"/>
-    <row r="264" s="1" customFormat="1"/>
-    <row r="265" s="1" customFormat="1"/>
-    <row r="266" s="1" customFormat="1"/>
-    <row r="267" s="1" customFormat="1"/>
-    <row r="268" s="1" customFormat="1"/>
-    <row r="269" s="1" customFormat="1"/>
-    <row r="270" s="1" customFormat="1"/>
-    <row r="271" s="1" customFormat="1"/>
-    <row r="272" s="1" customFormat="1"/>
-    <row r="273" s="1" customFormat="1"/>
-    <row r="274" s="1" customFormat="1"/>
-    <row r="275" s="1" customFormat="1"/>
-    <row r="276" s="1" customFormat="1"/>
-    <row r="277" s="1" customFormat="1"/>
-    <row r="278" s="1" customFormat="1"/>
-    <row r="279" s="1" customFormat="1"/>
-    <row r="280" s="1" customFormat="1"/>
-    <row r="281" s="1" customFormat="1"/>
-    <row r="282" s="1" customFormat="1"/>
-    <row r="283" s="1" customFormat="1"/>
-    <row r="284" s="1" customFormat="1"/>
-    <row r="285" s="1" customFormat="1"/>
-    <row r="286" s="1" customFormat="1"/>
-    <row r="287" s="1" customFormat="1"/>
-    <row r="288" s="1" customFormat="1"/>
-    <row r="289" s="1" customFormat="1"/>
-    <row r="290" s="1" customFormat="1"/>
-    <row r="291" s="1" customFormat="1"/>
-    <row r="292" s="1" customFormat="1"/>
-    <row r="293" s="1" customFormat="1"/>
-    <row r="294" s="1" customFormat="1"/>
-    <row r="295" s="1" customFormat="1"/>
-    <row r="296" s="1" customFormat="1"/>
-    <row r="297" s="1" customFormat="1"/>
-    <row r="298" s="1" customFormat="1"/>
-    <row r="299" s="1" customFormat="1"/>
-    <row r="300" s="1" customFormat="1"/>
-    <row r="301" s="1" customFormat="1"/>
-    <row r="302" s="1" customFormat="1"/>
-    <row r="303" s="1" customFormat="1"/>
-    <row r="304" s="1" customFormat="1"/>
-    <row r="305" s="1" customFormat="1"/>
-    <row r="306" s="1" customFormat="1"/>
-    <row r="307" s="1" customFormat="1"/>
-    <row r="308" s="1" customFormat="1"/>
-    <row r="309" s="1" customFormat="1"/>
-    <row r="310" s="1" customFormat="1"/>
-    <row r="311" s="1" customFormat="1"/>
-    <row r="312" s="1" customFormat="1"/>
-    <row r="313" s="1" customFormat="1"/>
-    <row r="314" s="1" customFormat="1"/>
-    <row r="315" s="1" customFormat="1"/>
-    <row r="316" s="1" customFormat="1"/>
-    <row r="317" s="1" customFormat="1"/>
-    <row r="318" s="1" customFormat="1"/>
-    <row r="319" s="1" customFormat="1"/>
-    <row r="320" s="1" customFormat="1"/>
-    <row r="321" s="1" customFormat="1"/>
-    <row r="322" s="1" customFormat="1"/>
-    <row r="323" s="1" customFormat="1"/>
-    <row r="324" s="1" customFormat="1"/>
-    <row r="325" s="1" customFormat="1"/>
-    <row r="326" s="1" customFormat="1"/>
-    <row r="327" s="1" customFormat="1"/>
-    <row r="328" s="1" customFormat="1"/>
-    <row r="329" s="1" customFormat="1"/>
-    <row r="330" s="1" customFormat="1"/>
-    <row r="331" s="1" customFormat="1"/>
-    <row r="332" s="1" customFormat="1"/>
-    <row r="333" s="1" customFormat="1"/>
-    <row r="334" s="1" customFormat="1"/>
-    <row r="335" s="1" customFormat="1"/>
-    <row r="336" s="1" customFormat="1"/>
-    <row r="337" s="1" customFormat="1"/>
-    <row r="338" s="1" customFormat="1"/>
-    <row r="339" s="1" customFormat="1"/>
-    <row r="340" s="1" customFormat="1"/>
-    <row r="341" s="1" customFormat="1"/>
-    <row r="342" s="1" customFormat="1"/>
-    <row r="343" s="1" customFormat="1"/>
-    <row r="344" s="1" customFormat="1"/>
-    <row r="345" s="1" customFormat="1"/>
-    <row r="346" s="1" customFormat="1"/>
-    <row r="347" s="1" customFormat="1"/>
-    <row r="348" s="1" customFormat="1"/>
-    <row r="349" s="1" customFormat="1"/>
-    <row r="350" s="1" customFormat="1"/>
-    <row r="351" s="1" customFormat="1"/>
-    <row r="352" s="1" customFormat="1"/>
-    <row r="353" s="1" customFormat="1"/>
-    <row r="354" s="1" customFormat="1"/>
-    <row r="355" s="1" customFormat="1"/>
-    <row r="356" s="1" customFormat="1"/>
-    <row r="357" s="1" customFormat="1"/>
-    <row r="358" s="1" customFormat="1"/>
-    <row r="359" s="1" customFormat="1"/>
-    <row r="360" s="1" customFormat="1"/>
-    <row r="361" s="1" customFormat="1"/>
-    <row r="362" s="1" customFormat="1"/>
-    <row r="363" s="1" customFormat="1"/>
-    <row r="364" s="1" customFormat="1"/>
-    <row r="365" s="1" customFormat="1"/>
-    <row r="366" s="1" customFormat="1"/>
-    <row r="367" s="1" customFormat="1"/>
-    <row r="368" s="1" customFormat="1"/>
-    <row r="369" s="1" customFormat="1"/>
-    <row r="370" s="1" customFormat="1"/>
-    <row r="371" s="1" customFormat="1"/>
-    <row r="372" s="1" customFormat="1"/>
-    <row r="373" s="1" customFormat="1"/>
-    <row r="374" s="1" customFormat="1"/>
-    <row r="375" s="1" customFormat="1"/>
-    <row r="376" s="1" customFormat="1"/>
-    <row r="377" s="1" customFormat="1"/>
-    <row r="378" s="1" customFormat="1"/>
-    <row r="379" s="1" customFormat="1"/>
-    <row r="380" s="1" customFormat="1"/>
-    <row r="381" s="1" customFormat="1"/>
-    <row r="382" s="1" customFormat="1"/>
-    <row r="383" s="1" customFormat="1"/>
-    <row r="384" s="1" customFormat="1"/>
-    <row r="385" s="1" customFormat="1"/>
-    <row r="386" s="1" customFormat="1"/>
-    <row r="387" s="1" customFormat="1"/>
-    <row r="388" s="1" customFormat="1"/>
-    <row r="389" s="1" customFormat="1"/>
-    <row r="390" s="1" customFormat="1"/>
-    <row r="391" s="1" customFormat="1"/>
-    <row r="392" s="1" customFormat="1"/>
-    <row r="393" s="1" customFormat="1"/>
-    <row r="394" s="1" customFormat="1"/>
-    <row r="395" s="1" customFormat="1"/>
-    <row r="396" s="1" customFormat="1"/>
-    <row r="397" s="1" customFormat="1"/>
-    <row r="398" s="1" customFormat="1"/>
-    <row r="399" s="1" customFormat="1"/>
-    <row r="400" s="1" customFormat="1"/>
-    <row r="401" s="1" customFormat="1"/>
-    <row r="402" s="1" customFormat="1"/>
-    <row r="403" s="1" customFormat="1"/>
-    <row r="404" s="1" customFormat="1"/>
-    <row r="405" s="1" customFormat="1"/>
-    <row r="406" s="1" customFormat="1"/>
-    <row r="407" s="1" customFormat="1"/>
-    <row r="408" s="1" customFormat="1"/>
-    <row r="409" s="1" customFormat="1"/>
-    <row r="410" s="1" customFormat="1"/>
-    <row r="411" s="1" customFormat="1"/>
-    <row r="412" s="1" customFormat="1"/>
-    <row r="413" s="1" customFormat="1"/>
-    <row r="414" s="1" customFormat="1"/>
-    <row r="415" s="1" customFormat="1"/>
-    <row r="416" s="1" customFormat="1"/>
-    <row r="417" s="1" customFormat="1"/>
-    <row r="418" s="1" customFormat="1"/>
-    <row r="419" s="1" customFormat="1"/>
-    <row r="420" s="1" customFormat="1"/>
-    <row r="421" s="1" customFormat="1"/>
-    <row r="422" s="1" customFormat="1"/>
-    <row r="423" s="1" customFormat="1"/>
-    <row r="424" s="1" customFormat="1"/>
-    <row r="425" s="1" customFormat="1"/>
-    <row r="426" s="1" customFormat="1"/>
-    <row r="427" s="1" customFormat="1"/>
-    <row r="428" s="1" customFormat="1"/>
-    <row r="429" s="1" customFormat="1"/>
+    <row r="58" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="59" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="60" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="61" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="62" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="63" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="64" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="275" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="276" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="277" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="278" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="279" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="280" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="281" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="282" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="283" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="284" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="285" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="286" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="287" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="288" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="289" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="290" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="291" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="292" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="293" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="294" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="295" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="296" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="297" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="298" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="299" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="300" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="301" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="302" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="303" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="304" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="305" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="306" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="307" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="308" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="309" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="310" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="311" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="312" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="313" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="314" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="315" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="316" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="317" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="318" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="319" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="320" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="321" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="322" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="323" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="324" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="325" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="326" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="327" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="328" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="329" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="330" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="331" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="332" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="333" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="334" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="335" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="336" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="337" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="338" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="339" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="340" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="341" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="342" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="343" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="344" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="345" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="346" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="347" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="348" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="349" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="350" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="351" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="352" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="353" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="354" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="355" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="356" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="357" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="358" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="359" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="360" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="361" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="362" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="363" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="364" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="365" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="366" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="367" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="368" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="369" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="370" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="371" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="372" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="373" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="374" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="375" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="376" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="377" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="378" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="379" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="380" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="381" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="382" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="383" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="384" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="385" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="386" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="387" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="388" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="389" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="390" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="391" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="392" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="393" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="394" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="395" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="396" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="397" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="398" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="399" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="400" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="401" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="402" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="403" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="404" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="405" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="406" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="407" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="408" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="409" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="410" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="411" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="412" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="413" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="414" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="415" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="416" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="417" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="418" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="419" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="420" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="421" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="422" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="423" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="424" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="425" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="426" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="427" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="428" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="429" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:DW4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="10.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="14.5555555555556" customWidth="1"/>
-    <col min="4" max="4" width="17.1111111111111" customWidth="1"/>
-    <col min="5" max="5" width="21.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="17.5555555555556" customWidth="1"/>
-    <col min="7" max="7" width="20.4444444444444" customWidth="1"/>
-    <col min="8" max="8" width="17.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="20.6666666666667" customWidth="1"/>
-    <col min="10" max="10" width="15.5555555555556" customWidth="1"/>
-    <col min="11" max="11" width="10.6666666666667" customWidth="1"/>
-    <col min="12" max="12" width="13.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="21.875" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="8" max="8" width="17.625" customWidth="1"/>
+    <col min="9" max="9" width="20.625" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="11" max="11" width="10.625" customWidth="1"/>
+    <col min="12" max="12" width="13.25" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="14" max="14" width="15.5555555555556" customWidth="1"/>
+    <col min="14" max="14" width="15.5" customWidth="1"/>
     <col min="15" max="15" width="16" customWidth="1"/>
-    <col min="16" max="16" width="14.8888888888889" customWidth="1"/>
-    <col min="17" max="17" width="17.5555555555556" customWidth="1"/>
-    <col min="18" max="18" width="25.2222222222222" customWidth="1"/>
+    <col min="16" max="16" width="14.875" customWidth="1"/>
+    <col min="17" max="17" width="17.5" customWidth="1"/>
+    <col min="18" max="18" width="25.25" customWidth="1"/>
     <col min="19" max="19" width="20" customWidth="1"/>
-    <col min="20" max="20" width="25.1111111111111" customWidth="1"/>
-    <col min="21" max="21" width="26.1111111111111" customWidth="1"/>
-    <col min="22" max="22" width="23.6666666666667" customWidth="1"/>
-    <col min="23" max="23" width="13.5555555555556" customWidth="1"/>
+    <col min="20" max="20" width="25.125" customWidth="1"/>
+    <col min="21" max="21" width="26.125" customWidth="1"/>
+    <col min="22" max="22" width="23.625" customWidth="1"/>
+    <col min="23" max="23" width="13.5" customWidth="1"/>
     <col min="24" max="24" width="15" customWidth="1"/>
-    <col min="25" max="25" width="20.6666666666667" customWidth="1"/>
-    <col min="26" max="26" width="22.2222222222222" customWidth="1"/>
-    <col min="27" max="27" width="31.2222222222222" customWidth="1"/>
-    <col min="28" max="28" width="9.11111111111111" customWidth="1"/>
-    <col min="29" max="29" width="13.6666666666667" customWidth="1"/>
-    <col min="30" max="30" width="10.7777777777778" customWidth="1"/>
-    <col min="31" max="31" width="15.2222222222222" customWidth="1"/>
-    <col min="32" max="32" width="14.6666666666667" customWidth="1"/>
-    <col min="33" max="33" width="11.1111111111111" customWidth="1"/>
-    <col min="34" max="34" width="33.2222222222222" customWidth="1"/>
-    <col min="35" max="35" width="13.8888888888889" customWidth="1"/>
-    <col min="36" max="36" width="14.4444444444444" customWidth="1"/>
-    <col min="37" max="37" width="20.4444444444444" customWidth="1"/>
-    <col min="38" max="38" width="19.5555555555556" customWidth="1"/>
-    <col min="39" max="39" width="16.7777777777778" customWidth="1"/>
-    <col min="40" max="40" width="8.88888888888889" customWidth="1"/>
-    <col min="41" max="41" width="22.8888888888889" customWidth="1"/>
-    <col min="42" max="42" width="19.1111111111111" customWidth="1"/>
-    <col min="43" max="43" width="10.8888888888889" customWidth="1"/>
-    <col min="44" max="44" width="27.7777777777778" customWidth="1"/>
-    <col min="45" max="45" width="30.2222222222222" customWidth="1"/>
-    <col min="46" max="46" width="19.2222222222222" customWidth="1"/>
+    <col min="25" max="25" width="20.625" customWidth="1"/>
+    <col min="26" max="26" width="22.25" customWidth="1"/>
+    <col min="27" max="27" width="31.25" customWidth="1"/>
+    <col min="28" max="28" width="9.125" customWidth="1"/>
+    <col min="29" max="29" width="13.625" customWidth="1"/>
+    <col min="30" max="30" width="10.75" customWidth="1"/>
+    <col min="31" max="31" width="15.25" customWidth="1"/>
+    <col min="32" max="32" width="14.625" customWidth="1"/>
+    <col min="33" max="33" width="11.125" customWidth="1"/>
+    <col min="34" max="34" width="33.25" customWidth="1"/>
+    <col min="35" max="35" width="13.875" customWidth="1"/>
+    <col min="36" max="36" width="14.5" customWidth="1"/>
+    <col min="37" max="37" width="20.5" customWidth="1"/>
+    <col min="38" max="38" width="19.5" customWidth="1"/>
+    <col min="39" max="39" width="16.75" customWidth="1"/>
+    <col min="40" max="40" width="8.875" customWidth="1"/>
+    <col min="41" max="41" width="22.875" customWidth="1"/>
+    <col min="42" max="42" width="19.125" customWidth="1"/>
+    <col min="43" max="43" width="10.875" customWidth="1"/>
+    <col min="44" max="44" width="27.75" customWidth="1"/>
+    <col min="45" max="45" width="30.25" customWidth="1"/>
+    <col min="46" max="46" width="19.25" customWidth="1"/>
     <col min="47" max="47" width="16" customWidth="1"/>
-    <col min="48" max="48" width="15.4444444444444" customWidth="1"/>
-    <col min="49" max="49" width="23.6666666666667" customWidth="1"/>
-    <col min="50" max="50" width="17.1111111111111" customWidth="1"/>
-    <col min="51" max="51" width="15.8888888888889" customWidth="1"/>
-    <col min="52" max="52" width="15.4444444444444" customWidth="1"/>
+    <col min="48" max="48" width="15.5" customWidth="1"/>
+    <col min="49" max="49" width="23.625" customWidth="1"/>
+    <col min="50" max="50" width="17.125" customWidth="1"/>
+    <col min="51" max="51" width="15.875" customWidth="1"/>
+    <col min="52" max="52" width="15.5" customWidth="1"/>
     <col min="53" max="53" width="19" customWidth="1"/>
-    <col min="54" max="54" width="21.6666666666667" customWidth="1"/>
-    <col min="55" max="55" width="25.5555555555556" customWidth="1"/>
-    <col min="56" max="56" width="15.1111111111111" customWidth="1"/>
-    <col min="57" max="57" width="24.2222222222222" customWidth="1"/>
-    <col min="58" max="58" width="25.7777777777778" customWidth="1"/>
+    <col min="54" max="54" width="21.625" customWidth="1"/>
+    <col min="55" max="55" width="25.5" customWidth="1"/>
+    <col min="56" max="56" width="15.125" customWidth="1"/>
+    <col min="57" max="57" width="24.25" customWidth="1"/>
+    <col min="58" max="58" width="25.75" customWidth="1"/>
     <col min="59" max="59" width="20" customWidth="1"/>
     <col min="60" max="60" width="24" customWidth="1"/>
-    <col min="61" max="61" width="17.8888888888889" customWidth="1"/>
-    <col min="62" max="62" width="28.7777777777778" customWidth="1"/>
-    <col min="63" max="63" width="23.5555555555556" customWidth="1"/>
-    <col min="64" max="64" width="8.44444444444444" customWidth="1"/>
-    <col min="65" max="65" width="8.77777777777778" customWidth="1"/>
-    <col min="66" max="66" width="14.5555555555556" customWidth="1"/>
-    <col min="67" max="67" width="20.6666666666667" customWidth="1"/>
-    <col min="68" max="68" width="23.5555555555556" customWidth="1"/>
-    <col min="69" max="69" width="17.5555555555556" customWidth="1"/>
+    <col min="61" max="61" width="17.875" customWidth="1"/>
+    <col min="62" max="62" width="28.75" customWidth="1"/>
+    <col min="63" max="63" width="23.5" customWidth="1"/>
+    <col min="64" max="64" width="8.5" customWidth="1"/>
+    <col min="65" max="65" width="8.75" customWidth="1"/>
+    <col min="66" max="66" width="14.5" customWidth="1"/>
+    <col min="67" max="67" width="20.625" customWidth="1"/>
+    <col min="68" max="68" width="23.5" customWidth="1"/>
+    <col min="69" max="69" width="17.5" customWidth="1"/>
     <col min="70" max="70" width="15" customWidth="1"/>
-    <col min="71" max="71" width="32.7777777777778" customWidth="1"/>
-    <col min="72" max="72" width="24.1111111111111" customWidth="1"/>
-    <col min="73" max="73" width="18.2222222222222" customWidth="1"/>
-    <col min="74" max="74" width="21.5555555555556" customWidth="1"/>
-    <col min="75" max="75" width="13.8888888888889" customWidth="1"/>
-    <col min="76" max="76" width="20.8888888888889" customWidth="1"/>
-    <col min="77" max="77" width="19.2222222222222" customWidth="1"/>
-    <col min="78" max="78" width="15.8888888888889" customWidth="1"/>
-    <col min="79" max="79" width="31.6666666666667" customWidth="1"/>
-    <col min="80" max="80" width="14.7777777777778" customWidth="1"/>
-    <col min="81" max="81" width="21.5555555555556" customWidth="1"/>
-    <col min="82" max="82" width="22.5555555555556" customWidth="1"/>
-    <col min="83" max="83" width="14.7777777777778" customWidth="1"/>
-    <col min="84" max="84" width="26.5555555555556" customWidth="1"/>
+    <col min="71" max="71" width="32.75" customWidth="1"/>
+    <col min="72" max="72" width="24.125" customWidth="1"/>
+    <col min="73" max="73" width="18.25" customWidth="1"/>
+    <col min="74" max="74" width="21.5" customWidth="1"/>
+    <col min="75" max="75" width="13.875" customWidth="1"/>
+    <col min="76" max="76" width="20.875" customWidth="1"/>
+    <col min="77" max="77" width="19.25" customWidth="1"/>
+    <col min="78" max="78" width="15.875" customWidth="1"/>
+    <col min="79" max="79" width="31.625" customWidth="1"/>
+    <col min="80" max="80" width="14.75" customWidth="1"/>
+    <col min="81" max="81" width="21.5" customWidth="1"/>
+    <col min="82" max="82" width="22.5" customWidth="1"/>
+    <col min="83" max="83" width="14.75" customWidth="1"/>
+    <col min="84" max="84" width="26.5" customWidth="1"/>
     <col min="85" max="85" width="19" customWidth="1"/>
-    <col min="86" max="86" width="19.7777777777778" customWidth="1"/>
-    <col min="87" max="87" width="12.8888888888889" customWidth="1"/>
-    <col min="88" max="88" width="23.2222222222222" customWidth="1"/>
-    <col min="89" max="89" width="34.7777777777778" customWidth="1"/>
-    <col min="90" max="90" width="21.4444444444444" customWidth="1"/>
-    <col min="91" max="91" width="16.1111111111111" customWidth="1"/>
-    <col min="92" max="92" width="23.7777777777778" customWidth="1"/>
-    <col min="93" max="93" width="19.2222222222222" customWidth="1"/>
-    <col min="94" max="94" width="23.7777777777778" customWidth="1"/>
-    <col min="95" max="95" width="18.6666666666667" customWidth="1"/>
-    <col min="96" max="96" width="17.1111111111111" customWidth="1"/>
-    <col min="97" max="97" width="27.6666666666667" customWidth="1"/>
-    <col min="98" max="98" width="35.4444444444444" customWidth="1"/>
-    <col min="99" max="99" width="11.6666666666667" customWidth="1"/>
-    <col min="100" max="100" width="16.7777777777778" customWidth="1"/>
-    <col min="101" max="101" width="26.1111111111111" customWidth="1"/>
-    <col min="102" max="102" width="14.5555555555556" customWidth="1"/>
-    <col min="103" max="103" width="13.2222222222222" customWidth="1"/>
-    <col min="104" max="104" width="31.2222222222222" customWidth="1"/>
-    <col min="105" max="105" width="16.7777777777778" customWidth="1"/>
+    <col min="86" max="86" width="19.75" customWidth="1"/>
+    <col min="87" max="87" width="12.875" customWidth="1"/>
+    <col min="88" max="88" width="23.25" customWidth="1"/>
+    <col min="89" max="89" width="34.75" customWidth="1"/>
+    <col min="90" max="90" width="21.5" customWidth="1"/>
+    <col min="91" max="91" width="16.125" customWidth="1"/>
+    <col min="92" max="92" width="23.75" customWidth="1"/>
+    <col min="93" max="93" width="19.25" customWidth="1"/>
+    <col min="94" max="94" width="23.75" customWidth="1"/>
+    <col min="95" max="95" width="18.625" customWidth="1"/>
+    <col min="96" max="96" width="17.125" customWidth="1"/>
+    <col min="97" max="97" width="27.625" customWidth="1"/>
+    <col min="98" max="98" width="35.5" customWidth="1"/>
+    <col min="99" max="99" width="11.625" customWidth="1"/>
+    <col min="100" max="100" width="16.75" customWidth="1"/>
+    <col min="101" max="101" width="26.125" customWidth="1"/>
+    <col min="102" max="102" width="14.5" customWidth="1"/>
+    <col min="103" max="103" width="13.25" customWidth="1"/>
+    <col min="104" max="104" width="31.25" customWidth="1"/>
+    <col min="105" max="105" width="16.75" customWidth="1"/>
     <col min="106" max="106" width="21" customWidth="1"/>
-    <col min="107" max="107" width="7.77777777777778" customWidth="1"/>
-    <col min="108" max="108" width="10.1111111111111" customWidth="1"/>
+    <col min="107" max="107" width="7.75" customWidth="1"/>
+    <col min="108" max="108" width="10.125" customWidth="1"/>
     <col min="109" max="109" width="14" customWidth="1"/>
-    <col min="110" max="110" width="15.2222222222222" customWidth="1"/>
-    <col min="111" max="111" width="13.2222222222222" customWidth="1"/>
-    <col min="112" max="112" width="15.4444444444444" customWidth="1"/>
-    <col min="113" max="113" width="14.7777777777778" customWidth="1"/>
-    <col min="114" max="114" width="23.6666666666667" customWidth="1"/>
-    <col min="115" max="115" width="23.7777777777778" customWidth="1"/>
-    <col min="116" max="116" width="23.6666666666667" customWidth="1"/>
-    <col min="117" max="117" width="18.6666666666667" customWidth="1"/>
-    <col min="118" max="118" width="22.4444444444444" customWidth="1"/>
-    <col min="119" max="119" width="25.2222222222222" customWidth="1"/>
-    <col min="120" max="120" width="17.6666666666667" customWidth="1"/>
-    <col min="121" max="121" width="22.6666666666667" customWidth="1"/>
-    <col min="122" max="122" width="14.4444444444444" customWidth="1"/>
-    <col min="123" max="123" width="17.6666666666667" customWidth="1"/>
-    <col min="124" max="124" width="25.7777777777778" customWidth="1"/>
-    <col min="125" max="125" width="10.4444444444444" customWidth="1"/>
+    <col min="110" max="110" width="15.25" customWidth="1"/>
+    <col min="111" max="111" width="13.25" customWidth="1"/>
+    <col min="112" max="112" width="15.5" customWidth="1"/>
+    <col min="113" max="113" width="14.75" customWidth="1"/>
+    <col min="114" max="114" width="23.625" customWidth="1"/>
+    <col min="115" max="115" width="23.75" customWidth="1"/>
+    <col min="116" max="116" width="23.625" customWidth="1"/>
+    <col min="117" max="117" width="18.625" customWidth="1"/>
+    <col min="118" max="118" width="22.5" customWidth="1"/>
+    <col min="119" max="119" width="25.25" customWidth="1"/>
+    <col min="120" max="120" width="17.625" customWidth="1"/>
+    <col min="121" max="121" width="22.625" customWidth="1"/>
+    <col min="122" max="122" width="14.5" customWidth="1"/>
+    <col min="123" max="123" width="17.625" customWidth="1"/>
+    <col min="124" max="124" width="25.75" customWidth="1"/>
+    <col min="125" max="125" width="10.5" customWidth="1"/>
     <col min="126" max="126" width="16" customWidth="1"/>
-    <col min="127" max="127" width="17.4444444444444" customWidth="1"/>
+    <col min="127" max="127" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.2" spans="1:127">
+    <row r="1" spans="1:127" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -16404,7 +16057,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="16.2" spans="1:126">
+    <row r="2" spans="1:127" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>130</v>
       </c>
@@ -16649,7 +16302,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="16.2" spans="1:126">
+    <row r="3" spans="1:127" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>169</v>
       </c>
@@ -16906,7 +16559,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="16.2" spans="1:126">
+    <row r="4" spans="1:127" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>183</v>
       </c>
@@ -17164,173 +16817,172 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:ER5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.4444444444444" customWidth="1"/>
-    <col min="2" max="2" width="21.8888888888889" customWidth="1"/>
-    <col min="3" max="3" width="21.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="20.4444444444444" customWidth="1"/>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="17.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="14.7777777777778" customWidth="1"/>
-    <col min="8" max="8" width="16.4444444444444" customWidth="1"/>
-    <col min="9" max="10" width="19.6666666666667" customWidth="1"/>
-    <col min="11" max="11" width="29.5555555555556" customWidth="1"/>
-    <col min="12" max="12" width="19.6666666666667" customWidth="1"/>
-    <col min="13" max="13" width="25.2222222222222" customWidth="1"/>
-    <col min="14" max="14" width="26.5555555555556" customWidth="1"/>
-    <col min="15" max="15" width="17.5555555555556" customWidth="1"/>
-    <col min="16" max="16" width="36.1111111111111" customWidth="1"/>
-    <col min="17" max="17" width="11.6666666666667" customWidth="1"/>
-    <col min="18" max="18" width="25.6666666666667" customWidth="1"/>
-    <col min="19" max="19" width="17.6666666666667" customWidth="1"/>
-    <col min="20" max="20" width="23.4444444444444" customWidth="1"/>
+    <col min="6" max="6" width="17.625" customWidth="1"/>
+    <col min="7" max="7" width="14.75" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="9" max="10" width="19.625" customWidth="1"/>
+    <col min="11" max="11" width="29.5" customWidth="1"/>
+    <col min="12" max="12" width="19.625" customWidth="1"/>
+    <col min="13" max="13" width="25.25" customWidth="1"/>
+    <col min="14" max="14" width="26.5" customWidth="1"/>
+    <col min="15" max="15" width="17.5" customWidth="1"/>
+    <col min="16" max="16" width="36.125" customWidth="1"/>
+    <col min="17" max="17" width="11.625" customWidth="1"/>
+    <col min="18" max="18" width="25.625" customWidth="1"/>
+    <col min="19" max="19" width="17.625" customWidth="1"/>
+    <col min="20" max="20" width="23.5" customWidth="1"/>
     <col min="21" max="21" width="29" customWidth="1"/>
-    <col min="22" max="22" width="35.6666666666667" customWidth="1"/>
-    <col min="23" max="23" width="18.8888888888889" customWidth="1"/>
-    <col min="24" max="24" width="20.2222222222222" customWidth="1"/>
-    <col min="25" max="25" width="26.1111111111111" customWidth="1"/>
+    <col min="22" max="22" width="35.625" customWidth="1"/>
+    <col min="23" max="23" width="18.875" customWidth="1"/>
+    <col min="24" max="24" width="20.25" customWidth="1"/>
+    <col min="25" max="25" width="26.125" customWidth="1"/>
     <col min="26" max="26" width="22" customWidth="1"/>
-    <col min="27" max="27" width="23.6666666666667" customWidth="1"/>
+    <col min="27" max="27" width="23.625" customWidth="1"/>
     <col min="28" max="28" width="20" customWidth="1"/>
-    <col min="29" max="29" width="21.6666666666667" customWidth="1"/>
-    <col min="30" max="30" width="20.1111111111111" customWidth="1"/>
-    <col min="31" max="31" width="19.6666666666667" customWidth="1"/>
-    <col min="32" max="32" width="14.1111111111111" customWidth="1"/>
-    <col min="33" max="33" width="24.7777777777778" customWidth="1"/>
-    <col min="34" max="34" width="22.8888888888889" customWidth="1"/>
-    <col min="35" max="35" width="13.5555555555556" customWidth="1"/>
-    <col min="36" max="36" width="32.6666666666667" customWidth="1"/>
-    <col min="37" max="37" width="20.1111111111111" customWidth="1"/>
-    <col min="38" max="38" width="28.6666666666667" customWidth="1"/>
-    <col min="39" max="39" width="17.7777777777778" customWidth="1"/>
-    <col min="40" max="40" width="22.7777777777778" customWidth="1"/>
+    <col min="29" max="29" width="21.625" customWidth="1"/>
+    <col min="30" max="30" width="20.125" customWidth="1"/>
+    <col min="31" max="31" width="19.625" customWidth="1"/>
+    <col min="32" max="32" width="14.125" customWidth="1"/>
+    <col min="33" max="33" width="24.75" customWidth="1"/>
+    <col min="34" max="34" width="22.875" customWidth="1"/>
+    <col min="35" max="35" width="13.5" customWidth="1"/>
+    <col min="36" max="36" width="32.625" customWidth="1"/>
+    <col min="37" max="37" width="20.125" customWidth="1"/>
+    <col min="38" max="38" width="28.625" customWidth="1"/>
+    <col min="39" max="39" width="17.75" customWidth="1"/>
+    <col min="40" max="40" width="22.75" customWidth="1"/>
     <col min="41" max="41" width="16" customWidth="1"/>
-    <col min="42" max="42" width="19.2222222222222" customWidth="1"/>
-    <col min="43" max="43" width="35.1111111111111" customWidth="1"/>
+    <col min="42" max="42" width="19.25" customWidth="1"/>
+    <col min="43" max="43" width="35.125" customWidth="1"/>
     <col min="44" max="44" width="12" customWidth="1"/>
-    <col min="45" max="45" width="33.5555555555556" customWidth="1"/>
-    <col min="46" max="46" width="16.7777777777778" customWidth="1"/>
-    <col min="47" max="47" width="18.4444444444444" customWidth="1"/>
-    <col min="48" max="48" width="8.88888888888889" customWidth="1"/>
-    <col min="49" max="49" width="16.7777777777778" customWidth="1"/>
-    <col min="50" max="50" width="21.6666666666667" customWidth="1"/>
-    <col min="51" max="51" width="27.6666666666667" customWidth="1"/>
-    <col min="52" max="52" width="18.2222222222222" customWidth="1"/>
-    <col min="53" max="53" width="22.5555555555556" customWidth="1"/>
-    <col min="54" max="54" width="28.5555555555556" customWidth="1"/>
-    <col min="55" max="55" width="25.6666666666667" customWidth="1"/>
-    <col min="56" max="56" width="25.2222222222222" customWidth="1"/>
-    <col min="57" max="57" width="24.4444444444444" customWidth="1"/>
-    <col min="58" max="58" width="24.7777777777778" customWidth="1"/>
-    <col min="59" max="59" width="31.8888888888889" customWidth="1"/>
-    <col min="60" max="60" width="22.6666666666667" customWidth="1"/>
-    <col min="61" max="61" width="31.2222222222222" customWidth="1"/>
-    <col min="62" max="62" width="24.6666666666667" customWidth="1"/>
+    <col min="45" max="45" width="33.5" customWidth="1"/>
+    <col min="46" max="46" width="16.75" customWidth="1"/>
+    <col min="47" max="47" width="18.5" customWidth="1"/>
+    <col min="48" max="48" width="8.875" customWidth="1"/>
+    <col min="49" max="49" width="16.75" customWidth="1"/>
+    <col min="50" max="50" width="21.625" customWidth="1"/>
+    <col min="51" max="51" width="27.625" customWidth="1"/>
+    <col min="52" max="52" width="18.25" customWidth="1"/>
+    <col min="53" max="53" width="22.5" customWidth="1"/>
+    <col min="54" max="54" width="28.5" customWidth="1"/>
+    <col min="55" max="55" width="25.625" customWidth="1"/>
+    <col min="56" max="56" width="25.25" customWidth="1"/>
+    <col min="57" max="57" width="24.5" customWidth="1"/>
+    <col min="58" max="58" width="24.75" customWidth="1"/>
+    <col min="59" max="59" width="31.875" customWidth="1"/>
+    <col min="60" max="60" width="22.625" customWidth="1"/>
+    <col min="61" max="61" width="31.25" customWidth="1"/>
+    <col min="62" max="62" width="24.625" customWidth="1"/>
     <col min="63" max="63" width="27" customWidth="1"/>
-    <col min="64" max="64" width="24.1111111111111" customWidth="1"/>
-    <col min="65" max="65" width="23.4444444444444" customWidth="1"/>
-    <col min="66" max="66" width="23.2222222222222" customWidth="1"/>
-    <col min="67" max="67" width="27.2222222222222" customWidth="1"/>
-    <col min="68" max="68" width="23.8888888888889" customWidth="1"/>
-    <col min="69" max="69" width="22.8888888888889" customWidth="1"/>
+    <col min="64" max="64" width="24.125" customWidth="1"/>
+    <col min="65" max="65" width="23.5" customWidth="1"/>
+    <col min="66" max="66" width="23.25" customWidth="1"/>
+    <col min="67" max="67" width="27.25" customWidth="1"/>
+    <col min="68" max="68" width="23.875" customWidth="1"/>
+    <col min="69" max="69" width="22.875" customWidth="1"/>
     <col min="70" max="70" width="28" customWidth="1"/>
-    <col min="71" max="71" width="14.1111111111111" customWidth="1"/>
-    <col min="72" max="72" width="16.5555555555556" customWidth="1"/>
-    <col min="73" max="73" width="18.4444444444444" customWidth="1"/>
-    <col min="74" max="74" width="16.2222222222222" customWidth="1"/>
-    <col min="75" max="75" width="24.8888888888889" customWidth="1"/>
-    <col min="76" max="76" width="21.4444444444444" customWidth="1"/>
-    <col min="77" max="77" width="26.5555555555556" customWidth="1"/>
+    <col min="71" max="71" width="14.125" customWidth="1"/>
+    <col min="72" max="72" width="16.5" customWidth="1"/>
+    <col min="73" max="73" width="18.5" customWidth="1"/>
+    <col min="74" max="74" width="16.25" customWidth="1"/>
+    <col min="75" max="75" width="24.875" customWidth="1"/>
+    <col min="76" max="76" width="21.5" customWidth="1"/>
+    <col min="77" max="77" width="26.5" customWidth="1"/>
     <col min="78" max="78" width="19" customWidth="1"/>
-    <col min="79" max="79" width="26.6666666666667" customWidth="1"/>
-    <col min="80" max="80" width="13.7777777777778" customWidth="1"/>
-    <col min="81" max="81" width="30.8888888888889" customWidth="1"/>
-    <col min="82" max="82" width="23.5555555555556" customWidth="1"/>
-    <col min="83" max="83" width="38.1111111111111" customWidth="1"/>
-    <col min="84" max="84" width="31.1111111111111" customWidth="1"/>
-    <col min="85" max="85" width="30.7777777777778" customWidth="1"/>
-    <col min="86" max="86" width="28.2222222222222" customWidth="1"/>
-    <col min="87" max="87" width="41.5555555555556" customWidth="1"/>
-    <col min="88" max="88" width="34.5555555555556" customWidth="1"/>
-    <col min="89" max="89" width="38.5555555555556" customWidth="1"/>
-    <col min="90" max="90" width="32.7777777777778" customWidth="1"/>
-    <col min="91" max="91" width="26.1111111111111" customWidth="1"/>
-    <col min="92" max="92" width="30.4444444444444" customWidth="1"/>
-    <col min="93" max="93" width="25.1111111111111" customWidth="1"/>
-    <col min="94" max="94" width="20.4444444444444" customWidth="1"/>
-    <col min="95" max="95" width="29.6666666666667" customWidth="1"/>
-    <col min="96" max="96" width="19.6666666666667" customWidth="1"/>
-    <col min="97" max="97" width="21.7777777777778" customWidth="1"/>
-    <col min="98" max="98" width="13.1111111111111" customWidth="1"/>
-    <col min="99" max="99" width="19.6666666666667" customWidth="1"/>
-    <col min="100" max="100" width="16.8888888888889" customWidth="1"/>
-    <col min="101" max="101" width="23.7777777777778" customWidth="1"/>
-    <col min="102" max="102" width="29.2222222222222" customWidth="1"/>
+    <col min="79" max="79" width="26.625" customWidth="1"/>
+    <col min="80" max="80" width="13.75" customWidth="1"/>
+    <col min="81" max="81" width="30.875" customWidth="1"/>
+    <col min="82" max="82" width="23.5" customWidth="1"/>
+    <col min="83" max="83" width="38.125" customWidth="1"/>
+    <col min="84" max="84" width="31.125" customWidth="1"/>
+    <col min="85" max="85" width="30.75" customWidth="1"/>
+    <col min="86" max="86" width="28.25" customWidth="1"/>
+    <col min="87" max="87" width="41.5" customWidth="1"/>
+    <col min="88" max="88" width="34.5" customWidth="1"/>
+    <col min="89" max="89" width="38.5" customWidth="1"/>
+    <col min="90" max="90" width="32.75" customWidth="1"/>
+    <col min="91" max="91" width="26.125" customWidth="1"/>
+    <col min="92" max="92" width="30.5" customWidth="1"/>
+    <col min="93" max="93" width="25.125" customWidth="1"/>
+    <col min="94" max="94" width="20.5" customWidth="1"/>
+    <col min="95" max="95" width="29.625" customWidth="1"/>
+    <col min="96" max="96" width="19.625" customWidth="1"/>
+    <col min="97" max="97" width="21.75" customWidth="1"/>
+    <col min="98" max="98" width="13.125" customWidth="1"/>
+    <col min="99" max="99" width="19.625" customWidth="1"/>
+    <col min="100" max="100" width="16.875" customWidth="1"/>
+    <col min="101" max="101" width="23.75" customWidth="1"/>
+    <col min="102" max="102" width="29.25" customWidth="1"/>
     <col min="103" max="103" width="29" customWidth="1"/>
-    <col min="104" max="104" width="28.6666666666667" customWidth="1"/>
-    <col min="105" max="105" width="25.7777777777778" customWidth="1"/>
-    <col min="106" max="106" width="12.8888888888889" customWidth="1"/>
-    <col min="107" max="107" width="36.1111111111111" customWidth="1"/>
-    <col min="108" max="108" width="32.7777777777778" customWidth="1"/>
-    <col min="109" max="109" width="30.7777777777778" customWidth="1"/>
-    <col min="110" max="110" width="41.2222222222222" customWidth="1"/>
-    <col min="111" max="111" width="28.4444444444444" customWidth="1"/>
-    <col min="112" max="112" width="32.6666666666667" customWidth="1"/>
-    <col min="113" max="113" width="35.2222222222222" customWidth="1"/>
-    <col min="114" max="114" width="15.8888888888889" customWidth="1"/>
-    <col min="115" max="115" width="27.8888888888889" customWidth="1"/>
-    <col min="116" max="116" width="27.4444444444444" customWidth="1"/>
-    <col min="117" max="117" width="20.4444444444444" customWidth="1"/>
-    <col min="118" max="118" width="29.4444444444444" customWidth="1"/>
-    <col min="119" max="119" width="25.4444444444444" customWidth="1"/>
-    <col min="120" max="120" width="20.1111111111111" customWidth="1"/>
-    <col min="121" max="121" width="29.5555555555556" customWidth="1"/>
-    <col min="122" max="122" width="20.2222222222222" customWidth="1"/>
-    <col min="123" max="123" width="27.4444444444444" customWidth="1"/>
-    <col min="124" max="124" width="23.6666666666667" customWidth="1"/>
-    <col min="125" max="125" width="30.7777777777778" customWidth="1"/>
-    <col min="126" max="126" width="31.4444444444444" customWidth="1"/>
-    <col min="127" max="127" width="28.2222222222222" customWidth="1"/>
-    <col min="128" max="128" width="37.2222222222222" customWidth="1"/>
-    <col min="129" max="129" width="40.7777777777778" customWidth="1"/>
-    <col min="130" max="130" width="18.8888888888889" customWidth="1"/>
-    <col min="131" max="131" width="28.8888888888889" customWidth="1"/>
-    <col min="132" max="132" width="22.6666666666667" customWidth="1"/>
-    <col min="133" max="133" width="22.2222222222222" customWidth="1"/>
-    <col min="134" max="134" width="24.4444444444444" customWidth="1"/>
-    <col min="135" max="135" width="29.1111111111111" customWidth="1"/>
-    <col min="136" max="136" width="23.2222222222222" customWidth="1"/>
-    <col min="137" max="137" width="31.8888888888889" customWidth="1"/>
-    <col min="138" max="138" width="36.7777777777778" customWidth="1"/>
-    <col min="139" max="139" width="29.4444444444444" customWidth="1"/>
+    <col min="104" max="104" width="28.625" customWidth="1"/>
+    <col min="105" max="105" width="25.75" customWidth="1"/>
+    <col min="106" max="106" width="12.875" customWidth="1"/>
+    <col min="107" max="107" width="36.125" customWidth="1"/>
+    <col min="108" max="108" width="32.75" customWidth="1"/>
+    <col min="109" max="109" width="30.75" customWidth="1"/>
+    <col min="110" max="110" width="41.25" customWidth="1"/>
+    <col min="111" max="111" width="28.5" customWidth="1"/>
+    <col min="112" max="112" width="32.625" customWidth="1"/>
+    <col min="113" max="113" width="35.25" customWidth="1"/>
+    <col min="114" max="114" width="15.875" customWidth="1"/>
+    <col min="115" max="115" width="27.875" customWidth="1"/>
+    <col min="116" max="116" width="27.5" customWidth="1"/>
+    <col min="117" max="117" width="20.5" customWidth="1"/>
+    <col min="118" max="118" width="29.5" customWidth="1"/>
+    <col min="119" max="119" width="25.5" customWidth="1"/>
+    <col min="120" max="120" width="20.125" customWidth="1"/>
+    <col min="121" max="121" width="29.5" customWidth="1"/>
+    <col min="122" max="122" width="20.25" customWidth="1"/>
+    <col min="123" max="123" width="27.5" customWidth="1"/>
+    <col min="124" max="124" width="23.625" customWidth="1"/>
+    <col min="125" max="125" width="30.75" customWidth="1"/>
+    <col min="126" max="126" width="31.5" customWidth="1"/>
+    <col min="127" max="127" width="28.25" customWidth="1"/>
+    <col min="128" max="128" width="37.25" customWidth="1"/>
+    <col min="129" max="129" width="40.75" customWidth="1"/>
+    <col min="130" max="130" width="18.875" customWidth="1"/>
+    <col min="131" max="131" width="28.875" customWidth="1"/>
+    <col min="132" max="132" width="22.625" customWidth="1"/>
+    <col min="133" max="133" width="22.25" customWidth="1"/>
+    <col min="134" max="134" width="24.5" customWidth="1"/>
+    <col min="135" max="135" width="29.125" customWidth="1"/>
+    <col min="136" max="136" width="23.25" customWidth="1"/>
+    <col min="137" max="137" width="31.875" customWidth="1"/>
+    <col min="138" max="138" width="36.75" customWidth="1"/>
+    <col min="139" max="139" width="29.5" customWidth="1"/>
     <col min="140" max="140" width="22" customWidth="1"/>
     <col min="141" max="141" width="21" customWidth="1"/>
-    <col min="142" max="142" width="26.6666666666667" customWidth="1"/>
-    <col min="143" max="143" width="31.5555555555556" customWidth="1"/>
-    <col min="144" max="144" width="35.1111111111111" customWidth="1"/>
-    <col min="145" max="145" width="42.1111111111111" customWidth="1"/>
-    <col min="146" max="146" width="29.1111111111111" customWidth="1"/>
-    <col min="147" max="147" width="22.4444444444444" customWidth="1"/>
-    <col min="148" max="148" width="20.7777777777778" customWidth="1"/>
+    <col min="142" max="142" width="26.625" customWidth="1"/>
+    <col min="143" max="143" width="31.5" customWidth="1"/>
+    <col min="144" max="144" width="35.125" customWidth="1"/>
+    <col min="145" max="145" width="42.125" customWidth="1"/>
+    <col min="146" max="146" width="29.125" customWidth="1"/>
+    <col min="147" max="147" width="22.5" customWidth="1"/>
+    <col min="148" max="148" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.2" spans="1:148">
+    <row r="1" spans="1:148" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -17776,7 +17428,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="16.2" spans="1:148">
+    <row r="2" spans="1:148" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>328</v>
       </c>
@@ -18186,7 +17838,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="16.2" spans="1:148">
+    <row r="3" spans="1:148" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>343</v>
       </c>
@@ -18596,7 +18248,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="16.2" spans="1:148">
+    <row r="4" spans="1:148" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>135</v>
       </c>
@@ -19006,7 +18658,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="16.2" spans="1:148">
+    <row r="5" spans="1:148" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>172</v>
       </c>
@@ -19417,115 +19069,111 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:ER5">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:ER5" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:CI8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:CH8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.7777777777778" customWidth="1"/>
-    <col min="2" max="3" width="20.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="17.4444444444444" customWidth="1"/>
-    <col min="5" max="5" width="24.4444444444444" customWidth="1"/>
-    <col min="6" max="6" width="17.5555555555556" customWidth="1"/>
-    <col min="7" max="7" width="10.6666666666667" customWidth="1"/>
-    <col min="8" max="8" width="13.2222222222222" customWidth="1"/>
-    <col min="9" max="9" width="30.6666666666667" customWidth="1"/>
-    <col min="10" max="10" width="19.1111111111111" customWidth="1"/>
-    <col min="11" max="11" width="21.1111111111111" customWidth="1"/>
-    <col min="12" max="12" width="18" customWidth="1"/>
-    <col min="13" max="13" width="24.5555555555556" customWidth="1"/>
-    <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="15" width="18" customWidth="1"/>
-    <col min="16" max="16" width="22.6666666666667" customWidth="1"/>
-    <col min="17" max="17" width="22.5555555555556" customWidth="1"/>
-    <col min="18" max="18" width="21.5555555555556" customWidth="1"/>
-    <col min="19" max="19" width="26.1111111111111" customWidth="1"/>
-    <col min="20" max="20" width="20.6666666666667" customWidth="1"/>
-    <col min="21" max="21" width="24" customWidth="1"/>
-    <col min="22" max="22" width="17.6666666666667" customWidth="1"/>
-    <col min="23" max="23" width="12" customWidth="1"/>
-    <col min="24" max="24" width="15.5555555555556" customWidth="1"/>
-    <col min="25" max="25" width="10.7777777777778" customWidth="1"/>
-    <col min="26" max="26" width="26.4444444444444" customWidth="1"/>
-    <col min="27" max="27" width="14.5555555555556" customWidth="1"/>
-    <col min="28" max="28" width="19.6666666666667" customWidth="1"/>
-    <col min="29" max="29" width="19.1111111111111" customWidth="1"/>
-    <col min="30" max="30" width="17.6666666666667" customWidth="1"/>
-    <col min="31" max="31" width="22.2222222222222" customWidth="1"/>
-    <col min="32" max="32" width="16.6666666666667" customWidth="1"/>
-    <col min="33" max="33" width="25.8888888888889" customWidth="1"/>
-    <col min="34" max="34" width="23.4444444444444" customWidth="1"/>
-    <col min="35" max="35" width="33.5555555555556" customWidth="1"/>
-    <col min="36" max="36" width="18.1111111111111" customWidth="1"/>
-    <col min="37" max="37" width="31.2222222222222" customWidth="1"/>
-    <col min="38" max="38" width="36.2222222222222" customWidth="1"/>
-    <col min="39" max="39" width="34.6666666666667" customWidth="1"/>
-    <col min="40" max="40" width="19.8888888888889" customWidth="1"/>
-    <col min="41" max="41" width="19.5555555555556" customWidth="1"/>
-    <col min="42" max="42" width="21.4444444444444" customWidth="1"/>
-    <col min="43" max="43" width="19.8888888888889" customWidth="1"/>
-    <col min="44" max="44" width="20.1111111111111" customWidth="1"/>
-    <col min="45" max="45" width="19" customWidth="1"/>
-    <col min="46" max="46" width="22" customWidth="1"/>
-    <col min="47" max="47" width="23.4444444444444" customWidth="1"/>
-    <col min="48" max="48" width="19.1111111111111" customWidth="1"/>
-    <col min="49" max="49" width="18.7777777777778" customWidth="1"/>
-    <col min="50" max="50" width="21.5555555555556" customWidth="1"/>
-    <col min="51" max="51" width="25.4444444444444" customWidth="1"/>
-    <col min="52" max="52" width="35.5555555555556" customWidth="1"/>
-    <col min="53" max="53" width="29.5555555555556" customWidth="1"/>
-    <col min="54" max="54" width="34.8888888888889" customWidth="1"/>
-    <col min="55" max="55" width="22.1111111111111" customWidth="1"/>
-    <col min="56" max="56" width="27.6666666666667" customWidth="1"/>
-    <col min="57" max="57" width="25.2222222222222" customWidth="1"/>
-    <col min="58" max="58" width="24.7777777777778" customWidth="1"/>
-    <col min="59" max="59" width="24.4444444444444" customWidth="1"/>
-    <col min="60" max="60" width="26.2222222222222" customWidth="1"/>
-    <col min="61" max="61" width="25.8888888888889" customWidth="1"/>
-    <col min="62" max="62" width="24.1111111111111" customWidth="1"/>
-    <col min="63" max="63" width="25.6666666666667" customWidth="1"/>
-    <col min="64" max="64" width="28.7777777777778" customWidth="1"/>
-    <col min="65" max="65" width="38.8888888888889" customWidth="1"/>
-    <col min="66" max="66" width="41.4444444444444" customWidth="1"/>
-    <col min="67" max="67" width="30.5555555555556" customWidth="1"/>
-    <col min="68" max="68" width="23.6666666666667" customWidth="1"/>
-    <col min="69" max="69" width="33.8888888888889" customWidth="1"/>
-    <col min="70" max="70" width="14.5555555555556" customWidth="1"/>
-    <col min="71" max="71" width="34.1111111111111" customWidth="1"/>
-    <col min="72" max="72" width="27" customWidth="1"/>
-    <col min="73" max="73" width="36.6666666666667" customWidth="1"/>
-    <col min="74" max="74" width="29.5555555555556" customWidth="1"/>
-    <col min="75" max="75" width="20.4444444444444" customWidth="1"/>
-    <col min="76" max="76" width="27.2222222222222" customWidth="1"/>
-    <col min="77" max="77" width="22.6666666666667" customWidth="1"/>
-    <col min="78" max="78" width="23.7777777777778" customWidth="1"/>
-    <col min="79" max="79" width="27.8888888888889" customWidth="1"/>
-    <col min="80" max="80" width="28.8888888888889" customWidth="1"/>
-    <col min="81" max="81" width="40.1111111111111" customWidth="1"/>
-    <col min="82" max="82" width="21.6666666666667" customWidth="1"/>
-    <col min="83" max="83" width="19.5555555555556" customWidth="1"/>
-    <col min="84" max="84" width="33" customWidth="1"/>
-    <col min="85" max="85" width="25.5555555555556" customWidth="1"/>
-    <col min="86" max="86" width="31" customWidth="1"/>
-    <col min="87" max="87" width="39.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="10.625" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
+    <col min="7" max="7" width="30.625" customWidth="1"/>
+    <col min="8" max="8" width="19.125" customWidth="1"/>
+    <col min="9" max="9" width="21.125" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="24.5" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="18" customWidth="1"/>
+    <col min="14" max="14" width="22.625" customWidth="1"/>
+    <col min="15" max="15" width="22.5" customWidth="1"/>
+    <col min="16" max="16" width="21.5" customWidth="1"/>
+    <col min="17" max="17" width="26.125" customWidth="1"/>
+    <col min="18" max="18" width="20.625" customWidth="1"/>
+    <col min="19" max="19" width="24" customWidth="1"/>
+    <col min="20" max="20" width="17.625" customWidth="1"/>
+    <col min="21" max="21" width="12" customWidth="1"/>
+    <col min="22" max="22" width="15.5" customWidth="1"/>
+    <col min="23" max="23" width="10.75" customWidth="1"/>
+    <col min="24" max="24" width="26.5" customWidth="1"/>
+    <col min="25" max="25" width="14.5" customWidth="1"/>
+    <col min="26" max="26" width="19.625" customWidth="1"/>
+    <col min="27" max="27" width="19.125" customWidth="1"/>
+    <col min="28" max="28" width="17.625" customWidth="1"/>
+    <col min="29" max="29" width="22.25" customWidth="1"/>
+    <col min="30" max="30" width="16.625" customWidth="1"/>
+    <col min="31" max="31" width="25.875" customWidth="1"/>
+    <col min="32" max="32" width="23.5" customWidth="1"/>
+    <col min="33" max="33" width="33.5" customWidth="1"/>
+    <col min="34" max="34" width="18.125" customWidth="1"/>
+    <col min="35" max="35" width="31.25" customWidth="1"/>
+    <col min="36" max="36" width="36.25" customWidth="1"/>
+    <col min="37" max="37" width="34.625" customWidth="1"/>
+    <col min="38" max="38" width="19.875" customWidth="1"/>
+    <col min="39" max="39" width="19.5" customWidth="1"/>
+    <col min="40" max="40" width="21.5" customWidth="1"/>
+    <col min="41" max="41" width="19.875" customWidth="1"/>
+    <col min="42" max="42" width="20.125" customWidth="1"/>
+    <col min="43" max="43" width="19" customWidth="1"/>
+    <col min="44" max="44" width="22" customWidth="1"/>
+    <col min="45" max="45" width="23.5" customWidth="1"/>
+    <col min="46" max="46" width="19.125" customWidth="1"/>
+    <col min="47" max="47" width="18.75" customWidth="1"/>
+    <col min="48" max="48" width="21.5" customWidth="1"/>
+    <col min="49" max="49" width="25.5" customWidth="1"/>
+    <col min="50" max="50" width="35.5" customWidth="1"/>
+    <col min="51" max="51" width="29.5" customWidth="1"/>
+    <col min="52" max="52" width="34.875" customWidth="1"/>
+    <col min="53" max="53" width="22.125" customWidth="1"/>
+    <col min="54" max="54" width="27.625" customWidth="1"/>
+    <col min="55" max="55" width="25.25" customWidth="1"/>
+    <col min="56" max="56" width="24.75" customWidth="1"/>
+    <col min="57" max="57" width="24.5" customWidth="1"/>
+    <col min="58" max="58" width="26.25" customWidth="1"/>
+    <col min="59" max="59" width="25.875" customWidth="1"/>
+    <col min="60" max="60" width="24.125" customWidth="1"/>
+    <col min="61" max="61" width="25.625" customWidth="1"/>
+    <col min="62" max="62" width="28.75" customWidth="1"/>
+    <col min="63" max="63" width="38.875" customWidth="1"/>
+    <col min="64" max="64" width="41.5" customWidth="1"/>
+    <col min="65" max="65" width="30.5" customWidth="1"/>
+    <col min="66" max="66" width="23.625" customWidth="1"/>
+    <col min="67" max="67" width="33.875" customWidth="1"/>
+    <col min="68" max="68" width="14.5" customWidth="1"/>
+    <col min="69" max="69" width="34.125" customWidth="1"/>
+    <col min="70" max="70" width="27" customWidth="1"/>
+    <col min="71" max="71" width="36.625" customWidth="1"/>
+    <col min="72" max="72" width="29.5" customWidth="1"/>
+    <col min="73" max="73" width="20.5" customWidth="1"/>
+    <col min="74" max="74" width="27.25" customWidth="1"/>
+    <col min="75" max="75" width="22.625" customWidth="1"/>
+    <col min="76" max="76" width="23.75" customWidth="1"/>
+    <col min="77" max="77" width="27.875" customWidth="1"/>
+    <col min="78" max="78" width="28.875" customWidth="1"/>
+    <col min="79" max="79" width="40.125" customWidth="1"/>
+    <col min="80" max="80" width="21.625" customWidth="1"/>
+    <col min="81" max="81" width="19.5" customWidth="1"/>
+    <col min="82" max="82" width="33" customWidth="1"/>
+    <col min="83" max="83" width="25.5" customWidth="1"/>
+    <col min="84" max="84" width="31" customWidth="1"/>
+    <col min="85" max="85" width="39.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.2" spans="1:87">
+    <row r="1" spans="1:86" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -19784,55 +19432,52 @@
       <c r="CH1" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="CI1" s="1" t="s">
-        <v>442</v>
-      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="16.2" spans="1:86">
+    <row r="2" spans="1:86" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="F2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="E2" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="5" t="s">
         <v>446</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>140</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>167</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>447</v>
+        <v>614</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>142</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>140</v>
@@ -19853,7 +19498,7 @@
         <v>142</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>449</v>
+        <v>331</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>144</v>
@@ -19868,7 +19513,7 @@
         <v>160</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>160</v>
+        <v>615</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>140</v>
@@ -19991,7 +19636,7 @@
         <v>167</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>160</v>
+        <v>614</v>
       </c>
       <c r="BQ2" s="1" t="s">
         <v>142</v>
@@ -20048,1721 +19693,184 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="16.2" spans="1:86">
-      <c r="A3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BD3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BE3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BF3" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BH3" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BI3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BJ3" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BK3" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BL3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BM3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BN3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BO3" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BP3" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="BQ3" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BR3" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="BS3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BT3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BU3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BV3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BW3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BX3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BY3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BZ3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CA3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CB3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CC3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CD3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CE3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CF3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CG3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CH3" s="1" t="s">
-        <v>140</v>
-      </c>
+    <row r="3" spans="1:86" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="C3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="16.2" spans="1:86">
-      <c r="A4" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="AQ4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AR4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AT4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AU4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AV4" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AW4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AX4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AY4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AZ4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BA4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BB4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BC4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BD4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BE4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BF4" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BG4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BH4" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BI4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BJ4" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BK4" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BL4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BM4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BN4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BO4" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BP4" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="BQ4" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BR4" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="BS4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BT4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BU4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BV4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BW4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BX4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BY4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BZ4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CA4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CB4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CC4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CD4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CE4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CF4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CG4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CH4" s="1" t="s">
-        <v>140</v>
-      </c>
+    <row r="4" spans="1:86" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="C4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="16.2" spans="1:86">
-      <c r="A5" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AL5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AM5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AN5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AO5" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="AP5" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AQ5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AR5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AT5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AU5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AV5" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AW5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AX5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AY5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AZ5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BA5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BB5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BC5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BD5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BE5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BF5" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BG5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BH5" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BI5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BJ5" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BK5" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BL5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BM5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BN5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BO5" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BP5" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="BQ5" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BR5" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="BS5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BT5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BU5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BV5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BW5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BX5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BY5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BZ5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CA5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CB5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CC5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CD5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CE5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CF5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CG5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CH5" s="1" t="s">
-        <v>140</v>
-      </c>
+    <row r="5" spans="1:86" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="C5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="16.2" spans="1:86">
-      <c r="A6" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AI6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AL6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AM6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AO6" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="AP6" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AQ6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AR6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AT6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AU6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AV6" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AW6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AX6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AY6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AZ6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BA6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BB6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BC6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BD6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BE6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BF6" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BG6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BH6" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BI6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BJ6" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BK6" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BL6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BM6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BN6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BO6" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BP6" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="BQ6" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BR6" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="BS6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BT6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BU6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BV6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BW6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BX6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BY6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BZ6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CA6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CB6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CC6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CD6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CE6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CF6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CG6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CH6" s="1" t="s">
-        <v>140</v>
-      </c>
+    <row r="6" spans="1:86" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="C6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="16.2" spans="1:86">
-      <c r="A7" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AI7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AL7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AM7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AN7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AO7" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="AP7" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="AQ7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AR7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AT7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AU7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AV7" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AW7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AX7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AY7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AZ7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BA7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BB7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BC7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BD7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BE7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BF7" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BG7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BH7" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BI7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BJ7" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BK7" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BL7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BM7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BN7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BO7" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BP7" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="BQ7" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BR7" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="BS7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BT7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BU7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BV7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BW7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BX7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BY7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BZ7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CA7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CB7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CC7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CD7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CE7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CF7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CG7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CH7" s="1" t="s">
-        <v>140</v>
-      </c>
+    <row r="7" spans="1:86" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="C7" s="2"/>
+      <c r="F7" s="2"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="16.2" spans="1:86">
-      <c r="A8" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AE8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AF8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AI8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AL8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AM8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AN8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AO8" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="AQ8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AR8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AT8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AU8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AV8" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AW8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AX8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AY8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AZ8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BA8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BB8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BC8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BD8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BE8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BF8" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BG8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BH8" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BI8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BJ8" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BK8" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BL8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BM8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BN8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BO8" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BP8" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="BQ8" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BR8" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="BS8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BT8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BU8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BV8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BW8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BX8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BY8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BZ8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CA8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CB8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CC8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CD8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CE8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CF8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CG8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CH8" s="1" t="s">
-        <v>140</v>
-      </c>
+    <row r="8" spans="1:86" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="C8" s="2"/>
+      <c r="F8" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:CI8">
-    <extLst/>
-  </autoFilter>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:EI11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="18.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="17.6666666666667" customWidth="1"/>
-    <col min="4" max="5" width="23.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="10.7777777777778" customWidth="1"/>
-    <col min="7" max="7" width="20.6666666666667" customWidth="1"/>
-    <col min="8" max="8" width="23.1111111111111" customWidth="1"/>
-    <col min="9" max="9" width="10.8888888888889" customWidth="1"/>
-    <col min="10" max="10" width="20.4444444444444" customWidth="1"/>
-    <col min="11" max="11" width="19.4444444444444" customWidth="1"/>
-    <col min="12" max="12" width="14.5555555555556" customWidth="1"/>
-    <col min="13" max="13" width="17.1111111111111" customWidth="1"/>
-    <col min="14" max="14" width="10.6666666666667" customWidth="1"/>
-    <col min="15" max="15" width="13.2222222222222" customWidth="1"/>
-    <col min="16" max="16" width="12" customWidth="1"/>
-    <col min="17" max="17" width="15.5555555555556" customWidth="1"/>
-    <col min="18" max="18" width="13.5555555555556" customWidth="1"/>
-    <col min="19" max="19" width="9.11111111111111" customWidth="1"/>
-    <col min="20" max="20" width="10.7777777777778" customWidth="1"/>
-    <col min="21" max="21" width="16" customWidth="1"/>
-    <col min="22" max="22" width="15" customWidth="1"/>
-    <col min="23" max="23" width="17.6666666666667" customWidth="1"/>
-    <col min="24" max="24" width="23.6666666666667" customWidth="1"/>
-    <col min="25" max="25" width="21.8888888888889" customWidth="1"/>
-    <col min="26" max="26" width="15.4444444444444" customWidth="1"/>
-    <col min="27" max="27" width="22.8888888888889" customWidth="1"/>
-    <col min="28" max="28" width="12.6666666666667" customWidth="1"/>
-    <col min="29" max="29" width="14.5555555555556" customWidth="1"/>
-    <col min="30" max="30" width="35.4444444444444" customWidth="1"/>
-    <col min="31" max="31" width="16.5555555555556" customWidth="1"/>
-    <col min="32" max="32" width="22.7777777777778" customWidth="1"/>
-    <col min="33" max="33" width="21.2222222222222" customWidth="1"/>
-    <col min="34" max="34" width="20.8888888888889" customWidth="1"/>
-    <col min="35" max="35" width="19.5555555555556" customWidth="1"/>
-    <col min="36" max="36" width="20.4444444444444" customWidth="1"/>
-    <col min="37" max="37" width="14.7777777777778" customWidth="1"/>
-    <col min="38" max="38" width="19.2222222222222" customWidth="1"/>
-    <col min="39" max="39" width="16.6666666666667" customWidth="1"/>
-    <col min="40" max="40" width="21.2222222222222" customWidth="1"/>
-    <col min="41" max="41" width="17.6666666666667" customWidth="1"/>
-    <col min="42" max="42" width="13.6666666666667" customWidth="1"/>
-    <col min="43" max="43" width="13.8888888888889" customWidth="1"/>
-    <col min="44" max="44" width="20.4444444444444" customWidth="1"/>
-    <col min="45" max="45" width="19.4444444444444" customWidth="1"/>
-    <col min="46" max="46" width="14.4444444444444" customWidth="1"/>
-    <col min="47" max="47" width="19.5555555555556" customWidth="1"/>
-    <col min="48" max="48" width="20.8888888888889" customWidth="1"/>
-    <col min="49" max="49" width="13.7777777777778" customWidth="1"/>
-    <col min="50" max="50" width="24.7777777777778" customWidth="1"/>
-    <col min="51" max="51" width="17.8888888888889" customWidth="1"/>
-    <col min="52" max="52" width="12" customWidth="1"/>
-    <col min="53" max="53" width="15.1111111111111" customWidth="1"/>
-    <col min="54" max="54" width="20.5555555555556" customWidth="1"/>
-    <col min="55" max="55" width="24.8888888888889" customWidth="1"/>
-    <col min="56" max="57" width="18.4444444444444" customWidth="1"/>
-    <col min="58" max="58" width="25.2222222222222" customWidth="1"/>
-    <col min="59" max="59" width="24.4444444444444" customWidth="1"/>
-    <col min="60" max="60" width="17.1111111111111" customWidth="1"/>
-    <col min="61" max="61" width="25.8888888888889" customWidth="1"/>
-    <col min="62" max="62" width="21.5555555555556" customWidth="1"/>
-    <col min="63" max="63" width="17.6666666666667" customWidth="1"/>
-    <col min="64" max="64" width="13.4444444444444" customWidth="1"/>
-    <col min="65" max="65" width="22" customWidth="1"/>
-    <col min="66" max="66" width="13.7777777777778" customWidth="1"/>
-    <col min="67" max="67" width="27.7777777777778" customWidth="1"/>
-    <col min="68" max="68" width="23.6666666666667" customWidth="1"/>
-    <col min="69" max="69" width="17.7777777777778" customWidth="1"/>
-    <col min="70" max="70" width="19.8888888888889" customWidth="1"/>
-    <col min="71" max="71" width="18.7777777777778" customWidth="1"/>
-    <col min="72" max="72" width="22.7777777777778" customWidth="1"/>
-    <col min="73" max="73" width="16.7777777777778" customWidth="1"/>
-    <col min="74" max="74" width="19.1111111111111" customWidth="1"/>
-    <col min="75" max="75" width="26.8888888888889" customWidth="1"/>
-    <col min="76" max="76" width="31.8888888888889" customWidth="1"/>
-    <col min="77" max="77" width="24.7777777777778" customWidth="1"/>
-    <col min="78" max="78" width="20.7777777777778" customWidth="1"/>
-    <col min="79" max="79" width="17.6666666666667" customWidth="1"/>
-    <col min="80" max="80" width="16.1111111111111" customWidth="1"/>
-    <col min="81" max="81" width="17.7777777777778" customWidth="1"/>
-    <col min="82" max="83" width="10.1111111111111" customWidth="1"/>
-    <col min="84" max="84" width="25.5555555555556" customWidth="1"/>
-    <col min="85" max="85" width="25.7777777777778" customWidth="1"/>
-    <col min="86" max="86" width="24.2222222222222" customWidth="1"/>
-    <col min="87" max="87" width="17.8888888888889" customWidth="1"/>
-    <col min="88" max="88" width="21.1111111111111" customWidth="1"/>
-    <col min="89" max="89" width="17" customWidth="1"/>
-    <col min="90" max="90" width="16.5555555555556" customWidth="1"/>
-    <col min="91" max="91" width="17.7777777777778" customWidth="1"/>
-    <col min="92" max="92" width="28.7777777777778" customWidth="1"/>
-    <col min="93" max="93" width="24.5555555555556" customWidth="1"/>
-    <col min="94" max="94" width="35" customWidth="1"/>
-    <col min="95" max="95" width="11.4444444444444" customWidth="1"/>
-    <col min="96" max="96" width="28.4444444444444" customWidth="1"/>
-    <col min="97" max="97" width="15" customWidth="1"/>
-    <col min="98" max="99" width="19.5555555555556" customWidth="1"/>
-    <col min="100" max="100" width="24.1111111111111" customWidth="1"/>
-    <col min="101" max="101" width="18.2222222222222" customWidth="1"/>
-    <col min="102" max="102" width="17.5555555555556" customWidth="1"/>
-    <col min="103" max="103" width="13.8888888888889" customWidth="1"/>
-    <col min="104" max="104" width="23.5555555555556" customWidth="1"/>
-    <col min="105" max="105" width="20" customWidth="1"/>
-    <col min="106" max="106" width="17.4444444444444" customWidth="1"/>
-    <col min="107" max="107" width="23.7777777777778" customWidth="1"/>
-    <col min="108" max="108" width="23.6666666666667" customWidth="1"/>
-    <col min="109" max="109" width="14.1111111111111" customWidth="1"/>
-    <col min="110" max="110" width="18.4444444444444" customWidth="1"/>
-    <col min="111" max="111" width="14.6666666666667" customWidth="1"/>
-    <col min="112" max="112" width="24.2222222222222" customWidth="1"/>
-    <col min="113" max="113" width="26.1111111111111" customWidth="1"/>
-    <col min="114" max="114" width="19.6666666666667" customWidth="1"/>
-    <col min="115" max="115" width="30.4444444444444" customWidth="1"/>
-    <col min="116" max="116" width="24.7777777777778" customWidth="1"/>
-    <col min="117" max="117" width="30.8888888888889" customWidth="1"/>
-    <col min="118" max="118" width="35.2222222222222" customWidth="1"/>
-    <col min="119" max="119" width="23.8888888888889" customWidth="1"/>
-    <col min="120" max="120" width="25.8888888888889" customWidth="1"/>
-    <col min="121" max="121" width="32.1111111111111" customWidth="1"/>
-    <col min="122" max="122" width="30.6666666666667" customWidth="1"/>
-    <col min="123" max="123" width="30.2222222222222" customWidth="1"/>
-    <col min="124" max="124" width="28.6666666666667" customWidth="1"/>
-    <col min="125" max="125" width="26" customWidth="1"/>
-    <col min="126" max="126" width="30.6666666666667" customWidth="1"/>
-    <col min="127" max="127" width="27" customWidth="1"/>
-    <col min="128" max="128" width="13.2222222222222" customWidth="1"/>
-    <col min="129" max="129" width="22.6666666666667" customWidth="1"/>
-    <col min="130" max="130" width="19.2222222222222" customWidth="1"/>
-    <col min="131" max="131" width="33.2222222222222" customWidth="1"/>
-    <col min="132" max="132" width="16.1111111111111" customWidth="1"/>
-    <col min="133" max="133" width="17.8888888888889" customWidth="1"/>
-    <col min="134" max="134" width="21.8888888888889" customWidth="1"/>
-    <col min="135" max="135" width="25.2222222222222" customWidth="1"/>
-    <col min="136" max="136" width="20.1111111111111" customWidth="1"/>
-    <col min="137" max="137" width="25.6666666666667" customWidth="1"/>
-    <col min="138" max="138" width="21.5555555555556" customWidth="1"/>
-    <col min="139" max="139" width="16" customWidth="1"/>
+    <col min="1" max="1" width="18.75" customWidth="1"/>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="3" max="4" width="23.625" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="23.125" customWidth="1"/>
+    <col min="8" max="8" width="10.875" customWidth="1"/>
+    <col min="9" max="9" width="20.5" customWidth="1"/>
+    <col min="10" max="10" width="19.5" customWidth="1"/>
+    <col min="11" max="11" width="14.5" customWidth="1"/>
+    <col min="12" max="12" width="17.125" customWidth="1"/>
+    <col min="13" max="13" width="10.625" customWidth="1"/>
+    <col min="14" max="14" width="13.25" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="16" max="16" width="15.5" customWidth="1"/>
+    <col min="17" max="17" width="13.5" customWidth="1"/>
+    <col min="18" max="18" width="9.125" customWidth="1"/>
+    <col min="19" max="19" width="10.75" customWidth="1"/>
+    <col min="20" max="20" width="16" customWidth="1"/>
+    <col min="21" max="21" width="15" customWidth="1"/>
+    <col min="22" max="22" width="17.625" customWidth="1"/>
+    <col min="23" max="23" width="23.625" customWidth="1"/>
+    <col min="24" max="24" width="21.875" customWidth="1"/>
+    <col min="25" max="25" width="15.5" customWidth="1"/>
+    <col min="26" max="26" width="22.875" customWidth="1"/>
+    <col min="27" max="27" width="12.625" customWidth="1"/>
+    <col min="28" max="28" width="14.5" customWidth="1"/>
+    <col min="29" max="29" width="35.5" customWidth="1"/>
+    <col min="30" max="30" width="16.5" customWidth="1"/>
+    <col min="31" max="31" width="22.75" customWidth="1"/>
+    <col min="32" max="32" width="21.25" customWidth="1"/>
+    <col min="33" max="33" width="20.875" customWidth="1"/>
+    <col min="34" max="34" width="19.5" customWidth="1"/>
+    <col min="35" max="35" width="20.5" customWidth="1"/>
+    <col min="36" max="36" width="14.75" customWidth="1"/>
+    <col min="37" max="37" width="19.25" customWidth="1"/>
+    <col min="38" max="38" width="16.625" customWidth="1"/>
+    <col min="39" max="39" width="21.25" customWidth="1"/>
+    <col min="40" max="40" width="17.625" customWidth="1"/>
+    <col min="41" max="41" width="13.625" customWidth="1"/>
+    <col min="42" max="42" width="13.875" customWidth="1"/>
+    <col min="43" max="43" width="20.5" customWidth="1"/>
+    <col min="44" max="44" width="19.5" customWidth="1"/>
+    <col min="45" max="45" width="14.5" customWidth="1"/>
+    <col min="46" max="46" width="19.5" customWidth="1"/>
+    <col min="47" max="47" width="20.875" customWidth="1"/>
+    <col min="48" max="48" width="13.75" customWidth="1"/>
+    <col min="49" max="49" width="24.75" customWidth="1"/>
+    <col min="50" max="50" width="17.875" customWidth="1"/>
+    <col min="51" max="51" width="12" customWidth="1"/>
+    <col min="52" max="52" width="15.125" customWidth="1"/>
+    <col min="53" max="53" width="20.5" customWidth="1"/>
+    <col min="54" max="54" width="24.875" customWidth="1"/>
+    <col min="55" max="56" width="18.5" customWidth="1"/>
+    <col min="57" max="57" width="25.25" customWidth="1"/>
+    <col min="58" max="58" width="24.5" customWidth="1"/>
+    <col min="59" max="59" width="17.125" customWidth="1"/>
+    <col min="60" max="60" width="25.875" customWidth="1"/>
+    <col min="61" max="61" width="21.5" customWidth="1"/>
+    <col min="62" max="62" width="17.625" customWidth="1"/>
+    <col min="63" max="63" width="13.5" customWidth="1"/>
+    <col min="64" max="64" width="22" customWidth="1"/>
+    <col min="65" max="65" width="13.75" customWidth="1"/>
+    <col min="66" max="66" width="27.75" customWidth="1"/>
+    <col min="67" max="67" width="23.625" customWidth="1"/>
+    <col min="68" max="68" width="17.75" customWidth="1"/>
+    <col min="69" max="69" width="19.875" customWidth="1"/>
+    <col min="70" max="70" width="18.75" customWidth="1"/>
+    <col min="71" max="71" width="22.75" customWidth="1"/>
+    <col min="72" max="72" width="16.75" customWidth="1"/>
+    <col min="73" max="73" width="19.125" customWidth="1"/>
+    <col min="74" max="74" width="26.875" customWidth="1"/>
+    <col min="75" max="75" width="31.875" customWidth="1"/>
+    <col min="76" max="76" width="24.75" customWidth="1"/>
+    <col min="77" max="77" width="20.75" customWidth="1"/>
+    <col min="78" max="78" width="17.625" customWidth="1"/>
+    <col min="79" max="79" width="16.125" customWidth="1"/>
+    <col min="80" max="80" width="17.75" customWidth="1"/>
+    <col min="81" max="82" width="10.125" customWidth="1"/>
+    <col min="83" max="83" width="25.5" customWidth="1"/>
+    <col min="84" max="84" width="25.75" customWidth="1"/>
+    <col min="85" max="85" width="24.25" customWidth="1"/>
+    <col min="86" max="86" width="17.875" customWidth="1"/>
+    <col min="87" max="87" width="21.125" customWidth="1"/>
+    <col min="88" max="88" width="17" customWidth="1"/>
+    <col min="89" max="89" width="16.5" customWidth="1"/>
+    <col min="90" max="90" width="17.75" customWidth="1"/>
+    <col min="91" max="91" width="28.75" customWidth="1"/>
+    <col min="92" max="92" width="24.5" customWidth="1"/>
+    <col min="93" max="93" width="35" customWidth="1"/>
+    <col min="94" max="94" width="11.5" customWidth="1"/>
+    <col min="95" max="95" width="28.5" customWidth="1"/>
+    <col min="96" max="96" width="15" customWidth="1"/>
+    <col min="97" max="98" width="19.5" customWidth="1"/>
+    <col min="99" max="99" width="24.125" customWidth="1"/>
+    <col min="100" max="100" width="18.25" customWidth="1"/>
+    <col min="101" max="101" width="17.5" customWidth="1"/>
+    <col min="102" max="102" width="13.875" customWidth="1"/>
+    <col min="103" max="103" width="23.5" customWidth="1"/>
+    <col min="104" max="104" width="20" customWidth="1"/>
+    <col min="105" max="105" width="17.5" customWidth="1"/>
+    <col min="106" max="106" width="23.75" customWidth="1"/>
+    <col min="107" max="107" width="23.625" customWidth="1"/>
+    <col min="108" max="108" width="14.125" customWidth="1"/>
+    <col min="109" max="109" width="18.5" customWidth="1"/>
+    <col min="110" max="110" width="14.625" customWidth="1"/>
+    <col min="111" max="111" width="24.25" customWidth="1"/>
+    <col min="112" max="112" width="26.125" customWidth="1"/>
+    <col min="113" max="113" width="19.625" customWidth="1"/>
+    <col min="114" max="114" width="30.5" customWidth="1"/>
+    <col min="115" max="115" width="24.75" customWidth="1"/>
+    <col min="116" max="116" width="30.875" customWidth="1"/>
+    <col min="117" max="117" width="35.25" customWidth="1"/>
+    <col min="118" max="118" width="23.875" customWidth="1"/>
+    <col min="119" max="119" width="25.875" customWidth="1"/>
+    <col min="120" max="120" width="32.125" customWidth="1"/>
+    <col min="121" max="121" width="30.625" customWidth="1"/>
+    <col min="122" max="122" width="30.25" customWidth="1"/>
+    <col min="123" max="123" width="28.625" customWidth="1"/>
+    <col min="124" max="124" width="26" customWidth="1"/>
+    <col min="125" max="125" width="30.625" customWidth="1"/>
+    <col min="126" max="126" width="27" customWidth="1"/>
+    <col min="127" max="127" width="13.25" customWidth="1"/>
+    <col min="128" max="128" width="22.625" customWidth="1"/>
+    <col min="129" max="129" width="19.25" customWidth="1"/>
+    <col min="130" max="130" width="33.25" customWidth="1"/>
+    <col min="131" max="131" width="16.125" customWidth="1"/>
+    <col min="132" max="132" width="17.875" customWidth="1"/>
+    <col min="133" max="133" width="21.875" customWidth="1"/>
+    <col min="134" max="134" width="25.25" customWidth="1"/>
+    <col min="135" max="135" width="20.125" customWidth="1"/>
+    <col min="136" max="136" width="25.625" customWidth="1"/>
+    <col min="137" max="137" width="21.5" customWidth="1"/>
+    <col min="138" max="138" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.2" spans="1:139">
+    <row r="1" spans="1:139" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -22181,48 +20289,48 @@
         <v>553</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="16.2" spans="1:139">
+    <row r="2" spans="1:139" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>555</v>
+        <v>616</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>556</v>
+        <v>573</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>331</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>557</v>
+        <v>617</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>558</v>
+        <v>618</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>131</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>137</v>
+        <v>619</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>344</v>
+        <v>172</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>620</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>350</v>
+        <v>132</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>446</v>
+        <v>170</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>621</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>144</v>
+        <v>460</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>144</v>
@@ -22240,25 +20348,25 @@
         <v>559</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>448</v>
+        <v>140</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>560</v>
+        <v>592</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>561</v>
+        <v>622</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>142</v>
+        <v>593</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>142</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>368</v>
+        <v>623</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>140</v>
+        <v>457</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>142</v>
@@ -22306,10 +20414,10 @@
         <v>144</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>562</v>
+        <v>172</v>
+      </c>
+      <c r="AS2" s="5" t="s">
+        <v>620</v>
       </c>
       <c r="AT2" s="1" t="s">
         <v>151</v>
@@ -22318,7 +20426,7 @@
         <v>132</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>563</v>
+        <v>586</v>
       </c>
       <c r="AX2" s="1" t="s">
         <v>160</v>
@@ -22327,7 +20435,7 @@
         <v>142</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>146</v>
+        <v>339</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>140</v>
@@ -22348,7 +20456,7 @@
         <v>167</v>
       </c>
       <c r="BJ2" s="1" t="s">
-        <v>142</v>
+        <v>594</v>
       </c>
       <c r="BL2" s="1" t="s">
         <v>142</v>
@@ -22357,10 +20465,10 @@
         <v>140</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>158</v>
+        <v>624</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>564</v>
+        <v>157</v>
       </c>
       <c r="BQ2" s="1" t="s">
         <v>140</v>
@@ -22387,7 +20495,7 @@
         <v>149</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="CA2" s="1" t="s">
         <v>142</v>
@@ -22405,7 +20513,7 @@
         <v>140</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>565</v>
+        <v>625</v>
       </c>
       <c r="CJ2" s="1" t="s">
         <v>157</v>
@@ -22491,9 +20599,6 @@
       <c r="DY2" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="EA2" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="EB2" s="1" t="s">
         <v>136</v>
       </c>
@@ -22513,48 +20618,45 @@
         <v>341</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="16.2" spans="1:139">
+    <row r="3" spans="1:139" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>572</v>
+        <v>626</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>573</v>
+        <v>602</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>331</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>557</v>
+        <v>617</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>574</v>
+        <v>618</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>131</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>137</v>
+        <v>619</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>344</v>
+        <v>603</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>604</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>446</v>
+        <v>132</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>621</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>144</v>
+        <v>460</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>144</v>
@@ -22575,22 +20677,22 @@
         <v>140</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>560</v>
+        <v>592</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>561</v>
+        <v>622</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>575</v>
+        <v>594</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>142</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>368</v>
+        <v>627</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>448</v>
+        <v>140</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>142</v>
@@ -22638,10 +20740,10 @@
         <v>144</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>562</v>
+        <v>603</v>
+      </c>
+      <c r="AS3" s="5" t="s">
+        <v>606</v>
       </c>
       <c r="AT3" s="1" t="s">
         <v>151</v>
@@ -22649,8 +20751,8 @@
       <c r="AU3" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AV3" s="1" t="s">
-        <v>563</v>
+      <c r="AV3" s="5" t="s">
+        <v>628</v>
       </c>
       <c r="AX3" s="1" t="s">
         <v>160</v>
@@ -22659,7 +20761,7 @@
         <v>142</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>146</v>
+        <v>339</v>
       </c>
       <c r="BA3" s="1" t="s">
         <v>140</v>
@@ -22668,7 +20770,7 @@
         <v>140</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="BF3" s="1" t="s">
         <v>157</v>
@@ -22676,11 +20778,14 @@
       <c r="BG3" s="1" t="s">
         <v>140</v>
       </c>
+      <c r="BH3" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="BI3" s="1" t="s">
         <v>167</v>
       </c>
       <c r="BJ3" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="BL3" s="1" t="s">
         <v>142</v>
@@ -22692,7 +20797,7 @@
         <v>158</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>564</v>
+        <v>157</v>
       </c>
       <c r="BQ3" s="1" t="s">
         <v>140</v>
@@ -22719,7 +20824,7 @@
         <v>149</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="CA3" s="1" t="s">
         <v>142</v>
@@ -22737,7 +20842,7 @@
         <v>140</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>577</v>
+        <v>629</v>
       </c>
       <c r="CJ3" s="1" t="s">
         <v>157</v>
@@ -22823,9 +20928,6 @@
       <c r="DY3" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="EA3" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="EB3" s="1" t="s">
         <v>136</v>
       </c>
@@ -22845,9 +20947,9 @@
         <v>341</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="16.2" spans="1:139">
+    <row r="4" spans="1:139" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>578</v>
+        <v>630</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>556</v>
@@ -22856,37 +20958,37 @@
         <v>331</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>557</v>
+        <v>617</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>558</v>
+        <v>618</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>131</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>137</v>
+        <v>619</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>344</v>
+        <v>172</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>620</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>350</v>
+        <v>132</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>451</v>
+        <v>170</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>621</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>144</v>
+        <v>460</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>144</v>
@@ -22904,13 +21006,13 @@
         <v>559</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>579</v>
+        <v>592</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>561</v>
+        <v>622</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>142</v>
@@ -22919,7 +21021,7 @@
         <v>142</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>368</v>
+        <v>623</v>
       </c>
       <c r="AB4" s="1" t="s">
         <v>140</v>
@@ -22970,10 +21072,10 @@
         <v>144</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="AS4" s="1" t="s">
-        <v>562</v>
+        <v>172</v>
+      </c>
+      <c r="AS4" s="5" t="s">
+        <v>620</v>
       </c>
       <c r="AT4" s="1" t="s">
         <v>151</v>
@@ -22982,7 +21084,7 @@
         <v>132</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>563</v>
+        <v>586</v>
       </c>
       <c r="AX4" s="1" t="s">
         <v>160</v>
@@ -22991,7 +21093,7 @@
         <v>142</v>
       </c>
       <c r="AZ4" s="1" t="s">
-        <v>146</v>
+        <v>339</v>
       </c>
       <c r="BA4" s="1" t="s">
         <v>140</v>
@@ -23021,10 +21123,10 @@
         <v>140</v>
       </c>
       <c r="BN4" s="1" t="s">
-        <v>158</v>
+        <v>624</v>
       </c>
       <c r="BP4" s="1" t="s">
-        <v>564</v>
+        <v>157</v>
       </c>
       <c r="BQ4" s="1" t="s">
         <v>140</v>
@@ -23051,7 +21153,7 @@
         <v>149</v>
       </c>
       <c r="BZ4" s="1" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="CA4" s="1" t="s">
         <v>142</v>
@@ -23069,7 +21171,7 @@
         <v>140</v>
       </c>
       <c r="CH4" s="1" t="s">
-        <v>580</v>
+        <v>631</v>
       </c>
       <c r="CJ4" s="1" t="s">
         <v>157</v>
@@ -23155,9 +21257,6 @@
       <c r="DY4" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="EA4" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="EB4" s="1" t="s">
         <v>136</v>
       </c>
@@ -23177,44 +21276,44 @@
         <v>341</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="16.2" spans="1:139">
+    <row r="5" spans="1:139" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>581</v>
+        <v>632</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>556</v>
+        <v>573</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>331</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>557</v>
+        <v>617</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>558</v>
+        <v>633</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>131</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>137</v>
+        <v>634</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>352</v>
+        <v>343</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>635</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>350</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="N5" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="O5" s="5" t="s">
         <v>446</v>
       </c>
       <c r="P5" s="1" t="s">
@@ -23236,25 +21335,25 @@
         <v>559</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="W5" s="1" t="s">
         <v>560</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>561</v>
+        <v>622</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>142</v>
+        <v>575</v>
       </c>
       <c r="Z5" s="1" t="s">
         <v>142</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>333</v>
+        <v>636</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>140</v>
+        <v>448</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>142</v>
@@ -23302,10 +21401,10 @@
         <v>144</v>
       </c>
       <c r="AR5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AS5" s="1" t="s">
-        <v>582</v>
+        <v>343</v>
+      </c>
+      <c r="AS5" s="5" t="s">
+        <v>635</v>
       </c>
       <c r="AT5" s="1" t="s">
         <v>151</v>
@@ -23313,6 +21412,9 @@
       <c r="AU5" s="1" t="s">
         <v>132</v>
       </c>
+      <c r="AV5" s="1" t="s">
+        <v>563</v>
+      </c>
       <c r="AX5" s="1" t="s">
         <v>160</v>
       </c>
@@ -23320,7 +21422,7 @@
         <v>142</v>
       </c>
       <c r="AZ5" s="1" t="s">
-        <v>146</v>
+        <v>339</v>
       </c>
       <c r="BA5" s="1" t="s">
         <v>140</v>
@@ -23341,7 +21443,7 @@
         <v>167</v>
       </c>
       <c r="BJ5" s="1" t="s">
-        <v>142</v>
+        <v>576</v>
       </c>
       <c r="BL5" s="1" t="s">
         <v>142</v>
@@ -23353,7 +21455,7 @@
         <v>158</v>
       </c>
       <c r="BP5" s="1" t="s">
-        <v>564</v>
+        <v>637</v>
       </c>
       <c r="BQ5" s="1" t="s">
         <v>140</v>
@@ -23380,7 +21482,7 @@
         <v>149</v>
       </c>
       <c r="BZ5" s="1" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="CA5" s="1" t="s">
         <v>142</v>
@@ -23398,7 +21500,7 @@
         <v>140</v>
       </c>
       <c r="CH5" s="1" t="s">
-        <v>583</v>
+        <v>638</v>
       </c>
       <c r="CJ5" s="1" t="s">
         <v>157</v>
@@ -23506,45 +21608,45 @@
         <v>341</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="16.2" spans="1:139">
+    <row r="6" spans="1:139" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>584</v>
+        <v>639</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>573</v>
+        <v>556</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>331</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>557</v>
+        <v>617</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>574</v>
+        <v>633</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>131</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>370</v>
+        <v>634</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>635</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>132</v>
+        <v>350</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>175</v>
+        <v>443</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>446</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>144</v>
@@ -23565,22 +21667,22 @@
         <v>559</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>140</v>
+        <v>448</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>585</v>
+        <v>560</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>561</v>
+        <v>622</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>575</v>
+        <v>142</v>
       </c>
       <c r="Z6" s="1" t="s">
         <v>142</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>368</v>
+        <v>636</v>
       </c>
       <c r="AB6" s="1" t="s">
         <v>140</v>
@@ -23630,11 +21732,11 @@
       <c r="AQ6" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AR6" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="AS6" s="2" t="s">
-        <v>370</v>
+      <c r="AR6" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="AS6" s="5" t="s">
+        <v>635</v>
       </c>
       <c r="AT6" s="1" t="s">
         <v>151</v>
@@ -23643,7 +21745,7 @@
         <v>132</v>
       </c>
       <c r="AV6" s="1" t="s">
-        <v>586</v>
+        <v>563</v>
       </c>
       <c r="AX6" s="1" t="s">
         <v>160</v>
@@ -23673,7 +21775,7 @@
         <v>167</v>
       </c>
       <c r="BJ6" s="1" t="s">
-        <v>576</v>
+        <v>142</v>
       </c>
       <c r="BL6" s="1" t="s">
         <v>142</v>
@@ -23685,7 +21787,7 @@
         <v>158</v>
       </c>
       <c r="BP6" s="1" t="s">
-        <v>564</v>
+        <v>637</v>
       </c>
       <c r="BQ6" s="1" t="s">
         <v>140</v>
@@ -23712,7 +21814,7 @@
         <v>149</v>
       </c>
       <c r="BZ6" s="1" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="CA6" s="1" t="s">
         <v>142</v>
@@ -23730,7 +21832,7 @@
         <v>140</v>
       </c>
       <c r="CH6" s="1" t="s">
-        <v>587</v>
+        <v>640</v>
       </c>
       <c r="CJ6" s="1" t="s">
         <v>157</v>
@@ -23838,9 +21940,9 @@
         <v>341</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="16.2" spans="1:139">
+    <row r="7" spans="1:139" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>588</v>
+        <v>641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>556</v>
@@ -23849,34 +21951,34 @@
         <v>331</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>557</v>
+        <v>617</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>558</v>
+        <v>633</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>131</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>370</v>
+        <v>642</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>635</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>132</v>
+        <v>350</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>175</v>
+        <v>443</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>451</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>144</v>
@@ -23897,13 +21999,13 @@
         <v>559</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>176</v>
+        <v>453</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>561</v>
+        <v>622</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>142</v>
@@ -23912,10 +22014,10 @@
         <v>142</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>368</v>
+        <v>636</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>469</v>
+        <v>140</v>
       </c>
       <c r="AC7" s="1" t="s">
         <v>142</v>
@@ -23962,11 +22064,11 @@
       <c r="AQ7" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AR7" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="AS7" s="2" t="s">
-        <v>370</v>
+      <c r="AR7" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="AS7" s="5" t="s">
+        <v>635</v>
       </c>
       <c r="AT7" s="1" t="s">
         <v>151</v>
@@ -23975,7 +22077,7 @@
         <v>132</v>
       </c>
       <c r="AV7" s="1" t="s">
-        <v>586</v>
+        <v>563</v>
       </c>
       <c r="AX7" s="1" t="s">
         <v>160</v>
@@ -24017,7 +22119,7 @@
         <v>158</v>
       </c>
       <c r="BP7" s="1" t="s">
-        <v>564</v>
+        <v>637</v>
       </c>
       <c r="BQ7" s="1" t="s">
         <v>140</v>
@@ -24044,7 +22146,7 @@
         <v>149</v>
       </c>
       <c r="BZ7" s="1" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="CA7" s="1" t="s">
         <v>142</v>
@@ -24062,7 +22164,7 @@
         <v>140</v>
       </c>
       <c r="CH7" s="1" t="s">
-        <v>589</v>
+        <v>643</v>
       </c>
       <c r="CJ7" s="1" t="s">
         <v>157</v>
@@ -24170,9 +22272,9 @@
         <v>341</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="16.2" spans="1:139">
+    <row r="8" spans="1:139" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>591</v>
+        <v>644</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>573</v>
@@ -24181,37 +22283,37 @@
         <v>331</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>557</v>
+        <v>617</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>558</v>
+        <v>633</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>131</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>370</v>
+        <v>645</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>646</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>132</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>170</v>
+        <v>462</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>186</v>
+        <v>174</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>175</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>460</v>
+        <v>144</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>144</v>
@@ -24232,22 +22334,22 @@
         <v>140</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>561</v>
+        <v>622</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="Z8" s="1" t="s">
         <v>142</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>371</v>
+        <v>647</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>457</v>
+        <v>176</v>
       </c>
       <c r="AC8" s="1" t="s">
         <v>142</v>
@@ -24294,11 +22396,11 @@
       <c r="AQ8" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AR8" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="AS8" s="2" t="s">
-        <v>370</v>
+      <c r="AR8" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="AS8" s="5" t="s">
+        <v>646</v>
       </c>
       <c r="AT8" s="1" t="s">
         <v>151</v>
@@ -24337,7 +22439,7 @@
         <v>167</v>
       </c>
       <c r="BJ8" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="BL8" s="1" t="s">
         <v>142</v>
@@ -24346,10 +22448,10 @@
         <v>140</v>
       </c>
       <c r="BN8" s="1" t="s">
-        <v>158</v>
+        <v>624</v>
       </c>
       <c r="BP8" s="1" t="s">
-        <v>564</v>
+        <v>637</v>
       </c>
       <c r="BQ8" s="1" t="s">
         <v>140</v>
@@ -24376,7 +22478,7 @@
         <v>149</v>
       </c>
       <c r="BZ8" s="1" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="CA8" s="1" t="s">
         <v>142</v>
@@ -24394,7 +22496,7 @@
         <v>140</v>
       </c>
       <c r="CH8" s="1" t="s">
-        <v>595</v>
+        <v>648</v>
       </c>
       <c r="CJ8" s="1" t="s">
         <v>157</v>
@@ -24502,48 +22604,45 @@
         <v>341</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="16.2" spans="1:139">
+    <row r="9" spans="1:139" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>597</v>
+        <v>649</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>556</v>
+        <v>602</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>331</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>557</v>
+        <v>617</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>558</v>
+        <v>633</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>131</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>370</v>
+        <v>645</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>604</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="N9" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>186</v>
+        <v>174</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>175</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>460</v>
+        <v>144</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>144</v>
@@ -24561,25 +22660,25 @@
         <v>559</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>561</v>
+        <v>622</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>142</v>
+        <v>576</v>
       </c>
       <c r="Z9" s="1" t="s">
         <v>142</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>371</v>
+        <v>650</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>468</v>
+        <v>140</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>142</v>
@@ -24626,11 +22725,11 @@
       <c r="AQ9" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AR9" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="AS9" s="2" t="s">
-        <v>370</v>
+      <c r="AR9" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="AS9" s="5" t="s">
+        <v>606</v>
       </c>
       <c r="AT9" s="1" t="s">
         <v>151</v>
@@ -24638,8 +22737,8 @@
       <c r="AU9" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AV9" s="1" t="s">
-        <v>586</v>
+      <c r="AV9" s="5" t="s">
+        <v>628</v>
       </c>
       <c r="AX9" s="1" t="s">
         <v>160</v>
@@ -24657,7 +22756,7 @@
         <v>140</v>
       </c>
       <c r="BC9" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="BF9" s="1" t="s">
         <v>157</v>
@@ -24665,11 +22764,14 @@
       <c r="BG9" s="1" t="s">
         <v>140</v>
       </c>
+      <c r="BH9" s="1" t="s">
+        <v>462</v>
+      </c>
       <c r="BI9" s="1" t="s">
         <v>167</v>
       </c>
       <c r="BJ9" s="1" t="s">
-        <v>142</v>
+        <v>576</v>
       </c>
       <c r="BL9" s="1" t="s">
         <v>142</v>
@@ -24681,7 +22783,7 @@
         <v>158</v>
       </c>
       <c r="BP9" s="1" t="s">
-        <v>564</v>
+        <v>637</v>
       </c>
       <c r="BQ9" s="1" t="s">
         <v>140</v>
@@ -24708,7 +22810,7 @@
         <v>149</v>
       </c>
       <c r="BZ9" s="1" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="CA9" s="1" t="s">
         <v>142</v>
@@ -24726,7 +22828,7 @@
         <v>140</v>
       </c>
       <c r="CH9" s="1" t="s">
-        <v>598</v>
+        <v>651</v>
       </c>
       <c r="CJ9" s="1" t="s">
         <v>157</v>
@@ -24834,41 +22936,44 @@
         <v>341</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="16.2" spans="1:139">
+    <row r="10" spans="1:139" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>601</v>
+        <v>652</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>602</v>
+        <v>556</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>331</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>557</v>
+        <v>617</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>558</v>
+        <v>633</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>131</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>604</v>
+        <v>645</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>646</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="M10" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="N10" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="O10" s="5" t="s">
         <v>175</v>
       </c>
       <c r="P10" s="1" t="s">
@@ -24890,22 +22995,22 @@
         <v>559</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="W10" s="1" t="s">
         <v>585</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>561</v>
+        <v>622</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>576</v>
+        <v>142</v>
       </c>
       <c r="Z10" s="1" t="s">
         <v>142</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>605</v>
+        <v>647</v>
       </c>
       <c r="AB10" s="1" t="s">
         <v>140</v>
@@ -24955,20 +23060,20 @@
       <c r="AQ10" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AR10" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="AS10" s="2" t="s">
-        <v>606</v>
+      <c r="AR10" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="AS10" s="5" t="s">
+        <v>646</v>
       </c>
       <c r="AT10" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AU10" s="1" t="s">
+      <c r="AU10" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AV10" s="2" t="s">
-        <v>607</v>
+      <c r="AV10" s="1" t="s">
+        <v>586</v>
       </c>
       <c r="AX10" s="1" t="s">
         <v>160</v>
@@ -24986,7 +23091,7 @@
         <v>140</v>
       </c>
       <c r="BC10" s="1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="BF10" s="1" t="s">
         <v>157</v>
@@ -24994,14 +23099,11 @@
       <c r="BG10" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="BH10" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="BI10" s="1" t="s">
         <v>167</v>
       </c>
       <c r="BJ10" s="1" t="s">
-        <v>576</v>
+        <v>142</v>
       </c>
       <c r="BL10" s="1" t="s">
         <v>142</v>
@@ -25010,10 +23112,10 @@
         <v>140</v>
       </c>
       <c r="BN10" s="1" t="s">
-        <v>158</v>
+        <v>624</v>
       </c>
       <c r="BP10" s="1" t="s">
-        <v>564</v>
+        <v>637</v>
       </c>
       <c r="BQ10" s="1" t="s">
         <v>140</v>
@@ -25058,7 +23160,7 @@
         <v>140</v>
       </c>
       <c r="CH10" s="1" t="s">
-        <v>608</v>
+        <v>653</v>
       </c>
       <c r="CJ10" s="1" t="s">
         <v>157</v>
@@ -25166,42 +23268,45 @@
         <v>341</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="16.2" spans="1:139">
+    <row r="11" spans="1:139" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>610</v>
+        <v>654</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>602</v>
+        <v>556</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>331</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>557</v>
+        <v>617</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>558</v>
+        <v>633</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>131</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>604</v>
+        <v>655</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>646</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>132</v>
       </c>
+      <c r="M11" s="1" t="s">
+        <v>462</v>
+      </c>
       <c r="N11" s="1" t="s">
         <v>185</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>186</v>
+        <v>621</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>460</v>
@@ -25222,22 +23327,22 @@
         <v>559</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>140</v>
+        <v>465</v>
       </c>
       <c r="W11" s="1" t="s">
         <v>592</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>561</v>
+        <v>622</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>594</v>
+        <v>142</v>
       </c>
       <c r="Z11" s="1" t="s">
         <v>142</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>611</v>
+        <v>647</v>
       </c>
       <c r="AB11" s="1" t="s">
         <v>140</v>
@@ -25287,20 +23392,20 @@
       <c r="AQ11" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AR11" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="AS11" s="2" t="s">
-        <v>606</v>
+      <c r="AR11" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="AS11" s="5" t="s">
+        <v>646</v>
       </c>
       <c r="AT11" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AU11" s="1" t="s">
+      <c r="AU11" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AV11" s="2" t="s">
-        <v>607</v>
+      <c r="AV11" s="1" t="s">
+        <v>586</v>
       </c>
       <c r="AX11" s="1" t="s">
         <v>160</v>
@@ -25318,7 +23423,7 @@
         <v>140</v>
       </c>
       <c r="BC11" s="1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="BF11" s="1" t="s">
         <v>157</v>
@@ -25326,14 +23431,11 @@
       <c r="BG11" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="BH11" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="BI11" s="1" t="s">
         <v>167</v>
       </c>
       <c r="BJ11" s="1" t="s">
-        <v>594</v>
+        <v>142</v>
       </c>
       <c r="BL11" s="1" t="s">
         <v>142</v>
@@ -25342,10 +23444,10 @@
         <v>140</v>
       </c>
       <c r="BN11" s="1" t="s">
-        <v>158</v>
+        <v>624</v>
       </c>
       <c r="BP11" s="1" t="s">
-        <v>564</v>
+        <v>637</v>
       </c>
       <c r="BQ11" s="1" t="s">
         <v>140</v>
@@ -25390,7 +23492,7 @@
         <v>140</v>
       </c>
       <c r="CH11" s="1" t="s">
-        <v>612</v>
+        <v>656</v>
       </c>
       <c r="CJ11" s="1" t="s">
         <v>157</v>
@@ -25499,10 +23601,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:EI11">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:EH11" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>